--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17815CE9-4AE7-6F43-BADD-7D74417AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29CDE3B-3823-EF42-BF58-4CFF2A1759A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16920" yWindow="-28300" windowWidth="43520" windowHeight="28300" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -586,24 +586,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F0BCB7-CBDE-374C-B555-280A864444A9}">
   <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N161" sqref="N161"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="0.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1455,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1912,18 +1915,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1952,19 +1958,43 @@
       <c r="N28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1.796</v>
+      </c>
+      <c r="P28">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="Q28">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="R28">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="S28">
+        <v>0.247</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1988,24 +2018,48 @@
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="P29">
+        <v>1.609</v>
+      </c>
+      <c r="Q29">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="R29">
+        <v>7.319</v>
+      </c>
+      <c r="S29">
+        <v>0.247</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -2023,10 +2077,10 @@
         <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
@@ -2034,16 +2088,37 @@
       <c r="N30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1.829</v>
+      </c>
+      <c r="P30">
+        <v>6.3529999999999998</v>
+      </c>
+      <c r="Q30">
+        <v>16.577999999999999</v>
+      </c>
+      <c r="R30">
+        <v>50.183999999999997</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2067,19 +2142,40 @@
         <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="P31">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="Q31">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="R31">
+        <v>7.3170000000000002</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2114,13 +2210,34 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="P32">
+        <v>6.2389999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>13.506</v>
+      </c>
+      <c r="R32">
+        <v>39.619</v>
+      </c>
+      <c r="S32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2155,13 +2272,34 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="P33">
+        <v>6.27</v>
+      </c>
+      <c r="Q33">
+        <v>11.576000000000001</v>
+      </c>
+      <c r="R33">
+        <v>34.220999999999997</v>
+      </c>
+      <c r="S33">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2196,13 +2334,34 @@
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1.79</v>
+      </c>
+      <c r="P34">
+        <v>6.3159999999999998</v>
+      </c>
+      <c r="Q34">
+        <v>11.02</v>
+      </c>
+      <c r="R34">
+        <v>23.960999999999999</v>
+      </c>
+      <c r="S34">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2240,13 +2399,34 @@
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1.774</v>
+      </c>
+      <c r="P35">
+        <v>6.25</v>
+      </c>
+      <c r="Q35">
+        <v>30.181000000000001</v>
+      </c>
+      <c r="R35">
+        <v>6.25</v>
+      </c>
+      <c r="S35">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2289,8 +2469,29 @@
       <c r="N36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="P36">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q36">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="R36">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2333,8 +2534,29 @@
       <c r="N37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="P37">
+        <v>2.4910000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>2.552</v>
+      </c>
+      <c r="R37">
+        <v>2.58</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2377,8 +2599,29 @@
       <c r="N38" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1.778</v>
+      </c>
+      <c r="P38">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="R38">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2421,8 +2664,29 @@
       <c r="N39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1.784</v>
+      </c>
+      <c r="P39">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="R39">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="S39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2465,8 +2729,29 @@
       <c r="N40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="P40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q40">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R40">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2509,8 +2794,29 @@
       <c r="N41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P41">
+        <v>1.208</v>
+      </c>
+      <c r="Q41">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="R41">
+        <v>1.323</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2553,8 +2859,29 @@
       <c r="N42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P42">
+        <v>1.208</v>
+      </c>
+      <c r="Q42">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="R42">
+        <v>1.323</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2597,22 +2924,40 @@
       <c r="N43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="P43">
+        <v>1.361</v>
+      </c>
+      <c r="Q43">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="R43">
+        <v>1.361</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -2636,27 +2981,45 @@
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P44">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="R44">
+        <v>4.0940000000000003</v>
+      </c>
+      <c r="S44">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -2685,336 +3048,357 @@
       <c r="N45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="O45">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P45">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="Q45">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="R45">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="S45">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>1920</v>
-      </c>
-      <c r="H46">
-        <v>90</v>
-      </c>
-      <c r="I46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H46" s="3">
+        <v>90</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="N46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47">
-        <v>1920</v>
-      </c>
-      <c r="H47">
-        <v>90</v>
-      </c>
-      <c r="I47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H47" s="3">
+        <v>90</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="N47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48">
-        <v>1920</v>
-      </c>
-      <c r="H48">
-        <v>90</v>
-      </c>
-      <c r="I48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H48" s="3">
+        <v>90</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="N48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49">
-        <v>1920</v>
-      </c>
-      <c r="H49">
-        <v>90</v>
-      </c>
-      <c r="I49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H49" s="3">
+        <v>90</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="N49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50">
-        <v>1920</v>
-      </c>
-      <c r="H50">
-        <v>90</v>
-      </c>
-      <c r="I50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H50" s="3">
+        <v>90</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="N50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51">
-        <v>1920</v>
-      </c>
-      <c r="H51">
-        <v>90</v>
-      </c>
-      <c r="I51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H51" s="3">
+        <v>90</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="N51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52">
-        <v>1920</v>
-      </c>
-      <c r="H52">
-        <v>90</v>
-      </c>
-      <c r="I52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H52" s="3">
+        <v>90</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="N52" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53">
-        <v>1920</v>
-      </c>
-      <c r="H53">
-        <v>90</v>
-      </c>
-      <c r="I53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1920</v>
+      </c>
+      <c r="H53" s="3">
+        <v>90</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3054,8 +3438,29 @@
       <c r="N54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P54">
+        <v>6.2</v>
+      </c>
+      <c r="Q54">
+        <v>21.140999999999998</v>
+      </c>
+      <c r="R54">
+        <v>39.552999999999997</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3095,8 +3500,29 @@
       <c r="N55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="P55">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>12.67</v>
+      </c>
+      <c r="R55">
+        <v>33.531999999999996</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3136,8 +3562,29 @@
       <c r="N56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="P56">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="Q56">
+        <v>12.21</v>
+      </c>
+      <c r="R56">
+        <v>23.864000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3177,8 +3624,29 @@
       <c r="N57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>1.774</v>
+      </c>
+      <c r="P57">
+        <v>6.1130000000000004</v>
+      </c>
+      <c r="Q57">
+        <v>43.23</v>
+      </c>
+      <c r="R57">
+        <v>90.935000000000002</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3218,8 +3686,29 @@
       <c r="N58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P58">
+        <v>1.609</v>
+      </c>
+      <c r="Q58">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="R58">
+        <v>4.133</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3259,8 +3748,29 @@
       <c r="N59" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="P59">
+        <v>1.609</v>
+      </c>
+      <c r="Q59">
+        <v>3.12</v>
+      </c>
+      <c r="R59">
+        <v>3.8519999999999999</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3300,8 +3810,29 @@
       <c r="N60" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P60">
+        <v>1.609</v>
+      </c>
+      <c r="Q60">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="R60">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3341,8 +3872,29 @@
       <c r="N61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P61">
+        <v>1.603</v>
+      </c>
+      <c r="Q61">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="R61">
+        <v>4.51</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3382,8 +3934,29 @@
       <c r="N62" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="P62">
+        <v>6.194</v>
+      </c>
+      <c r="Q62">
+        <v>13.28</v>
+      </c>
+      <c r="R62">
+        <v>39.555</v>
+      </c>
+      <c r="S62">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3423,8 +3996,29 @@
       <c r="N63" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="P63">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>10.827999999999999</v>
+      </c>
+      <c r="R63">
+        <v>40.212000000000003</v>
+      </c>
+      <c r="S63">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3463,6 +4057,27 @@
       </c>
       <c r="N64" t="s">
         <v>47</v>
+      </c>
+      <c r="O64">
+        <v>1.77</v>
+      </c>
+      <c r="P64">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="Q64">
+        <v>10.56</v>
+      </c>
+      <c r="R64">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="S64">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>865</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -3505,6 +4120,27 @@
       <c r="N65" t="s">
         <v>47</v>
       </c>
+      <c r="O65">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="P65">
+        <v>6.3090000000000002</v>
+      </c>
+      <c r="Q65">
+        <v>25.722999999999999</v>
+      </c>
+      <c r="R65">
+        <v>44.228999999999999</v>
+      </c>
+      <c r="S65">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>3533</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -3546,6 +4182,27 @@
       <c r="N66" t="s">
         <v>47</v>
       </c>
+      <c r="O66">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="P66">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>3.11</v>
+      </c>
+      <c r="R66">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="S66">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>1625</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -3587,6 +4244,27 @@
       <c r="N67" t="s">
         <v>47</v>
       </c>
+      <c r="O67">
+        <v>0.72</v>
+      </c>
+      <c r="P67">
+        <v>1.6</v>
+      </c>
+      <c r="Q67">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="R67">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="S67">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1345</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -3628,6 +4306,27 @@
       <c r="N68" t="s">
         <v>47</v>
       </c>
+      <c r="O68">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="P68">
+        <v>1.609</v>
+      </c>
+      <c r="Q68">
+        <v>2.968</v>
+      </c>
+      <c r="R68">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="S68">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>896</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -3669,6 +4368,27 @@
       <c r="N69" t="s">
         <v>47</v>
       </c>
+      <c r="O69">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P69">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="Q69">
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="R69">
+        <v>3.5779999999999998</v>
+      </c>
+      <c r="S69">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>3533</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -3710,6 +4430,27 @@
       <c r="N70" t="s">
         <v>47</v>
       </c>
+      <c r="O70">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="P70">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="Q70">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="R70">
+        <v>9.5280000000000005</v>
+      </c>
+      <c r="S70">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>231</v>
+      </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -3751,6 +4492,27 @@
       <c r="N71" t="s">
         <v>47</v>
       </c>
+      <c r="O71">
+        <v>1.788</v>
+      </c>
+      <c r="P71">
+        <v>6.1929999999999996</v>
+      </c>
+      <c r="Q71">
+        <v>7.07</v>
+      </c>
+      <c r="R71">
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="S71">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>224</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -3792,6 +4554,27 @@
       <c r="N72" t="s">
         <v>47</v>
       </c>
+      <c r="O72">
+        <v>1.78</v>
+      </c>
+      <c r="P72">
+        <v>6.2380000000000004</v>
+      </c>
+      <c r="Q72">
+        <v>6.9480000000000004</v>
+      </c>
+      <c r="R72">
+        <v>9.0630000000000006</v>
+      </c>
+      <c r="S72">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>208</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -3833,6 +4616,27 @@
       <c r="N73" t="s">
         <v>47</v>
       </c>
+      <c r="O73">
+        <v>1.782</v>
+      </c>
+      <c r="P73">
+        <v>6.27</v>
+      </c>
+      <c r="Q73">
+        <v>8.4359999999999999</v>
+      </c>
+      <c r="R73">
+        <v>11.433999999999999</v>
+      </c>
+      <c r="S73">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>341</v>
+      </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -3874,6 +4678,27 @@
       <c r="N74" t="s">
         <v>47</v>
       </c>
+      <c r="O74">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P74">
+        <v>1.609</v>
+      </c>
+      <c r="Q74">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="R74">
+        <v>4.1139999999999999</v>
+      </c>
+      <c r="S74">
+        <v>0.872</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1631</v>
+      </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -3915,6 +4740,27 @@
       <c r="N75" t="s">
         <v>47</v>
       </c>
+      <c r="O75">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P75">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="Q75">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="R75">
+        <v>3.8109999999999999</v>
+      </c>
+      <c r="S75">
+        <v>0.314</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1352</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -3956,6 +4802,27 @@
       <c r="N76" t="s">
         <v>47</v>
       </c>
+      <c r="O76">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="P76">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="Q76">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="R76">
+        <v>3.605</v>
+      </c>
+      <c r="S76">
+        <v>0.314</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>903</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -3997,6 +4864,27 @@
       <c r="N77" t="s">
         <v>47</v>
       </c>
+      <c r="O77">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="P77">
+        <v>1.593</v>
+      </c>
+      <c r="Q77">
+        <v>3.452</v>
+      </c>
+      <c r="R77">
+        <v>5.8860000000000001</v>
+      </c>
+      <c r="S77">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>3540</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -4951,7 +5839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4992,7 +5880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5033,7 +5921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5074,7 +5962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5115,7 +6003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5156,7 +6044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5197,7 +6085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5238,7 +6126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5249,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -5267,30 +6155,54 @@
         <v>36</v>
       </c>
       <c r="K104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L104" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N104" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P104">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="Q104">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="R104">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="S104">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
       <c r="C105" t="s">
         <v>27</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -5308,19 +6220,40 @@
         <v>36</v>
       </c>
       <c r="K105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L105" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N105" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="P105">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="Q105">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="R105">
+        <v>3.669</v>
+      </c>
+      <c r="S105">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5331,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -5360,22 +6293,40 @@
       <c r="N106" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="P106">
+        <v>6.27</v>
+      </c>
+      <c r="Q106">
+        <v>14.641999999999999</v>
+      </c>
+      <c r="R106">
+        <v>40.625999999999998</v>
+      </c>
+      <c r="S106">
+        <v>0.247</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>44</v>
-      </c>
       <c r="C107" t="s">
         <v>27</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -5404,8 +6355,29 @@
       <c r="N107" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="P107">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="Q107">
+        <v>11.141999999999999</v>
+      </c>
+      <c r="R107">
+        <v>34.667000000000002</v>
+      </c>
+      <c r="S107">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>1.3520000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5416,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -5440,24 +6412,48 @@
         <v>48</v>
       </c>
       <c r="M108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N108" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="P108">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="Q108">
+        <v>9.7119999999999997</v>
+      </c>
+      <c r="R108">
+        <v>23.969000000000001</v>
+      </c>
+      <c r="S108">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
       <c r="C109" t="s">
         <v>27</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -5481,13 +6477,34 @@
         <v>48</v>
       </c>
       <c r="M109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="P109">
+        <v>6.3179999999999996</v>
+      </c>
+      <c r="Q109">
+        <v>26.831</v>
+      </c>
+      <c r="R109">
+        <v>81.277000000000001</v>
+      </c>
+      <c r="S109">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5498,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -5527,22 +6544,40 @@
       <c r="N110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P110">
+        <v>1.55</v>
+      </c>
+      <c r="Q110">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="R110">
+        <v>4.109</v>
+      </c>
+      <c r="S110">
+        <v>0.247</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>44</v>
-      </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -5571,8 +6606,29 @@
       <c r="N111" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P111">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="Q111">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="R111">
+        <v>3.911</v>
+      </c>
+      <c r="S111">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5615,8 +6671,29 @@
       <c r="N112" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1.78</v>
+      </c>
+      <c r="P112">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="Q112">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="R112">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5659,8 +6736,29 @@
       <c r="N113" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>1.77</v>
+      </c>
+      <c r="P113">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="Q113">
+        <v>2.5</v>
+      </c>
+      <c r="R113">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5703,8 +6801,29 @@
       <c r="N114" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>1.77</v>
+      </c>
+      <c r="P114">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q114">
+        <v>2.5</v>
+      </c>
+      <c r="R114">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5747,8 +6866,29 @@
       <c r="N115" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1.77</v>
+      </c>
+      <c r="P115">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="Q115">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="R115">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="S115">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5791,8 +6931,29 @@
       <c r="N116" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="P116">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="Q116">
+        <v>1.288</v>
+      </c>
+      <c r="R116">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="S116">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5835,8 +6996,29 @@
       <c r="N117" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P117">
+        <v>1.226</v>
+      </c>
+      <c r="Q117">
+        <v>1.2</v>
+      </c>
+      <c r="R117">
+        <v>1.226</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5879,8 +7061,29 @@
       <c r="N118" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P118">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q118">
+        <v>1.167</v>
+      </c>
+      <c r="R118">
+        <v>1.214</v>
+      </c>
+      <c r="S118">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5923,22 +7126,40 @@
       <c r="N119" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P119">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="Q119">
+        <v>1.4</v>
+      </c>
+      <c r="R119">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>43</v>
-      </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
         <v>9</v>
@@ -5962,21 +7183,42 @@
         <v>48</v>
       </c>
       <c r="M120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N120" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P120">
+        <v>1.617</v>
+      </c>
+      <c r="Q120">
+        <v>2.181</v>
+      </c>
+      <c r="R120">
+        <v>3.37</v>
+      </c>
+      <c r="S120">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -6011,8 +7253,29 @@
       <c r="N121" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P121">
+        <v>1.534</v>
+      </c>
+      <c r="Q121">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="R121">
+        <v>5.9870000000000001</v>
+      </c>
+      <c r="S121">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6053,7 +7316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -6094,7 +7357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -6135,7 +7398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -6176,7 +7439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6217,7 +7480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -6258,7 +7521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -6299,7 +7562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -6340,7 +7603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6380,8 +7643,29 @@
       <c r="N130" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>1.768</v>
+      </c>
+      <c r="P130">
+        <v>6.1870000000000003</v>
+      </c>
+      <c r="Q130">
+        <v>7.7</v>
+      </c>
+      <c r="R130">
+        <v>9.3829999999999991</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6421,8 +7705,29 @@
       <c r="N131" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="P131">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="Q131">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="R131">
+        <v>9.7420000000000009</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6462,8 +7767,29 @@
       <c r="N132" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>1.778</v>
+      </c>
+      <c r="P132">
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="Q132">
+        <v>7.65</v>
+      </c>
+      <c r="R132">
+        <v>9.3849999999999998</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6503,8 +7829,29 @@
       <c r="N133" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>1.782</v>
+      </c>
+      <c r="P133">
+        <v>9.0030000000000001</v>
+      </c>
+      <c r="Q133">
+        <v>10.766999999999999</v>
+      </c>
+      <c r="R133">
+        <v>13.047000000000001</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6544,8 +7891,29 @@
       <c r="N134" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="P134">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="Q134">
+        <v>1.968</v>
+      </c>
+      <c r="R134">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6585,8 +7953,29 @@
       <c r="N135" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>0.71</v>
+      </c>
+      <c r="P135">
+        <v>1.577</v>
+      </c>
+      <c r="Q135">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="R135">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6626,8 +8015,29 @@
       <c r="N136" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="P136">
+        <v>1.506</v>
+      </c>
+      <c r="Q136">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="R136">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6667,8 +8077,29 @@
       <c r="N137" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P137">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="Q137">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="R137">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6708,8 +8139,29 @@
       <c r="N138" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>1.77</v>
+      </c>
+      <c r="P138">
+        <v>6.3689999999999998</v>
+      </c>
+      <c r="Q138">
+        <v>8.15</v>
+      </c>
+      <c r="R138">
+        <v>10.581</v>
+      </c>
+      <c r="S138">
+        <v>0.247</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6749,8 +8201,29 @@
       <c r="N139" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="P139">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="Q139">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="R139">
+        <v>9.6189999999999998</v>
+      </c>
+      <c r="S139">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6790,8 +8263,29 @@
       <c r="N140" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="P140">
+        <v>6.1390000000000002</v>
+      </c>
+      <c r="Q140">
+        <v>7.1070000000000002</v>
+      </c>
+      <c r="R140">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="S140">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6831,8 +8325,29 @@
       <c r="N141" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P141">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="Q141">
+        <v>8.58</v>
+      </c>
+      <c r="R141">
+        <v>11.702999999999999</v>
+      </c>
+      <c r="S141">
+        <v>0.24</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6872,8 +8387,29 @@
       <c r="N142" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>0.71</v>
+      </c>
+      <c r="P142">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="Q142">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="R142">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="S142">
+        <v>0.247</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6913,8 +8449,29 @@
       <c r="N143" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P143">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="Q143">
+        <v>1.909</v>
+      </c>
+      <c r="R143">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="S143">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6954,8 +8511,29 @@
       <c r="N144" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="P144">
+        <v>1.573</v>
+      </c>
+      <c r="Q144">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="R144">
+        <v>2.5</v>
+      </c>
+      <c r="S144">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6995,8 +8573,29 @@
       <c r="N145" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="P145">
+        <v>1.579</v>
+      </c>
+      <c r="Q145">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="R145">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S145">
+        <v>0.247</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7036,8 +8635,29 @@
       <c r="N146" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>1.78</v>
+      </c>
+      <c r="P146">
+        <v>6.3360000000000003</v>
+      </c>
+      <c r="Q146">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="R146">
+        <v>6.3360000000000003</v>
+      </c>
+      <c r="S146">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7077,8 +8697,29 @@
       <c r="N147" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="P147">
+        <v>6.3289999999999997</v>
+      </c>
+      <c r="Q147">
+        <v>6.7240000000000002</v>
+      </c>
+      <c r="R147">
+        <v>6.3289999999999997</v>
+      </c>
+      <c r="S147">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7118,8 +8759,29 @@
       <c r="N148" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>1.79</v>
+      </c>
+      <c r="P148">
+        <v>6.3170000000000002</v>
+      </c>
+      <c r="Q148">
+        <v>6.6219999999999999</v>
+      </c>
+      <c r="R148">
+        <v>6.3170000000000002</v>
+      </c>
+      <c r="S148">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7159,8 +8821,29 @@
       <c r="N149" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>1.792</v>
+      </c>
+      <c r="P149">
+        <v>6.28</v>
+      </c>
+      <c r="Q149">
+        <v>7.07</v>
+      </c>
+      <c r="R149">
+        <v>6.28</v>
+      </c>
+      <c r="S149">
+        <v>0.09</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7200,8 +8883,29 @@
       <c r="N150" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="P150">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="Q150">
+        <v>1.7</v>
+      </c>
+      <c r="R150">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="S150">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7241,8 +8945,29 @@
       <c r="N151" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P151">
+        <v>1.506</v>
+      </c>
+      <c r="Q151">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="R151">
+        <v>1.506</v>
+      </c>
+      <c r="S151">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7282,8 +9007,29 @@
       <c r="N152" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P152">
+        <v>1.538</v>
+      </c>
+      <c r="Q152">
+        <v>1.649</v>
+      </c>
+      <c r="R152">
+        <v>1.538</v>
+      </c>
+      <c r="S152">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7322,6 +9068,27 @@
       </c>
       <c r="N153" t="s">
         <v>47</v>
+      </c>
+      <c r="O153">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="P153">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="Q153">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="R153">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="S153">
+        <v>0.09</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>3540</v>
       </c>
     </row>
   </sheetData>

--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29CDE3B-3823-EF42-BF58-4CFF2A1759A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672B5C9-0507-904F-A910-7CAA83EC8A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:U153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D26CAB-1BDD-4242-B483-CEE21E3DE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ED97DC-7CB4-F941-92F8-31B2EF01F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:U165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\PROJECTS\ImageLoadingMasters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB16D5-0810-024B-80C0-BF99E16298D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2115906C-6FE1-46FD-BFD4-5FC0E1B7D8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="7" activeTab="16" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="32265" yWindow="-14925" windowWidth="32670" windowHeight="17640" firstSheet="8" activeTab="16" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT DATA" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId18"/>
-    <pivotCache cacheId="6" r:id="rId19"/>
-    <pivotCache cacheId="7" r:id="rId20"/>
-    <pivotCache cacheId="8" r:id="rId21"/>
-    <pivotCache cacheId="9" r:id="rId22"/>
-    <pivotCache cacheId="10" r:id="rId23"/>
-    <pivotCache cacheId="11" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="2" r:id="rId20"/>
+    <pivotCache cacheId="3" r:id="rId21"/>
+    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="5" r:id="rId23"/>
+    <pivotCache cacheId="6" r:id="rId24"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="89">
   <si>
     <t>Technika optymalizacji</t>
   </si>
@@ -332,16 +332,10 @@
     <t>,</t>
   </si>
   <si>
-    <t>Suma z TTFB</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>Suma z FCP</t>
-  </si>
-  <si>
-    <t>Suma z SI</t>
-  </si>
-  <si>
-    <t>Suma z LCP</t>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -412,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,9 +424,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,7 +445,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1503,7 +1498,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1618,13 +1613,14 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
+          <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
@@ -1674,13 +1670,14 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
+          <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
@@ -1730,13 +1727,14 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
+          <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
@@ -1786,13 +1784,14 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
+          <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
@@ -1816,7 +1815,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z TTFB</c:v>
+                  <c:v> TTFB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1831,6 +1830,50 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HISRC+HTML5.1'!$A$4:$A$18</c:f>
@@ -1841,25 +1884,25 @@
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1867,13 +1910,13 @@
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1894,28 +1937,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.3539999999999992</c:v>
+                  <c:v>1.7846666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.38</c:v>
+                  <c:v>1.7933333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3470000000000004</c:v>
+                  <c:v>1.7823333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1509999999999998</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1659999999999999</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1369999999999996</c:v>
+                  <c:v>0.71233333333333315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1559999999999997</c:v>
+                  <c:v>0.71866666666666656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,7 +1978,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z FCP</c:v>
+                  <c:v> FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1950,6 +1993,50 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HISRC+HTML5.1'!$A$4:$A$18</c:f>
@@ -1960,25 +2047,25 @@
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1986,13 +2073,13 @@
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2013,28 +2100,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12.896000000000001</c:v>
+                  <c:v>4.2986666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.026</c:v>
+                  <c:v>4.3419999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.370000000000001</c:v>
+                  <c:v>4.456666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.422000000000001</c:v>
+                  <c:v>4.4740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1289999999999996</c:v>
+                  <c:v>1.3763333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3919999999999995</c:v>
+                  <c:v>1.4639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.242</c:v>
+                  <c:v>1.4139999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z SI</c:v>
+                  <c:v> SI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2069,6 +2156,50 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HISRC+HTML5.1'!$A$4:$A$18</c:f>
@@ -2079,25 +2210,25 @@
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2105,13 +2236,13 @@
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2132,28 +2263,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>32.754000000000005</c:v>
+                  <c:v>10.918000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.067</c:v>
+                  <c:v>10.355666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.408000000000001</c:v>
+                  <c:v>5.469333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.040000000000003</c:v>
+                  <c:v>10.346666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9440000000000008</c:v>
+                  <c:v>2.9813333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8789999999999996</c:v>
+                  <c:v>2.9596666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1589999999999998</c:v>
+                  <c:v>1.7196666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3870000000000005</c:v>
+                  <c:v>2.129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +2304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma z LCP</c:v>
+                  <c:v> LCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2188,6 +2319,50 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'HISRC+HTML5.1'!$A$4:$A$18</c:f>
@@ -2198,25 +2373,25 @@
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>HISRC + HTML 5.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>REFERENCJA</c:v>
+                    <c:v>Pomiar bazowy</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2224,13 +2399,13 @@
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>DESKTOP</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>MOBILE</c:v>
+                    <c:v>Urządzenie mobilne</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2251,28 +2426,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41.052999999999997</c:v>
+                  <c:v>13.684333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.74</c:v>
+                  <c:v>30.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.29</c:v>
+                  <c:v>7.0966666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.847000000000008</c:v>
+                  <c:v>30.615666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.834</c:v>
+                  <c:v>3.6113333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.047000000000001</c:v>
+                  <c:v>3.6823333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0869999999999997</c:v>
+                  <c:v>2.3623333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.783000000000001</c:v>
+                  <c:v>3.5943333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,8 +2459,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2368,6 +2544,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2458,7 +2690,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2473,7 +2704,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3906,7 +4137,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5117,7 +5348,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6556,7 +6787,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7767,7 +7998,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9034,7 +9265,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10568,7 +10799,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11481,7 +11712,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11975,7 +12206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17874,16 +18105,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>166451</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>22968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>615004</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61069</xdr:rowOff>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26560,7 +26791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26709,7 +26940,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26717,7 +26948,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item n="Pomiar bazowy" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -26731,7 +26962,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
+        <item n="Urządzenie mobilne" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -26822,10 +27053,10 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Suma z TTFB" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Suma z FCP" fld="15" baseField="0" baseItem="0"/>
-    <dataField name="Suma z SI" fld="16" baseField="0" baseItem="0"/>
-    <dataField name="Suma z LCP" fld="17" baseField="0" baseItem="0"/>
+    <dataField name=" TTFB" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name=" FCP" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name=" SI" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name=" LCP" fld="17" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="0" format="1" series="1">
@@ -26878,7 +27109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27085,7 +27316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27264,7 +27495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27479,7 +27710,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27648,7 +27879,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27827,7 +28058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -28042,7 +28273,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28189,7 +28420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28318,9 +28549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -28358,7 +28589,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -28464,7 +28695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28640,27 +28871,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -28725,7 +28956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -28787,7 +29018,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -28849,7 +29080,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -28911,7 +29142,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -28973,7 +29204,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -29035,7 +29266,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -29097,7 +29328,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -29159,7 +29390,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -29221,7 +29452,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -29283,7 +29514,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -29345,7 +29576,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -29407,7 +29638,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -29469,7 +29700,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -29531,7 +29762,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -29593,7 +29824,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -29655,7 +29886,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -29717,7 +29948,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -29782,7 +30013,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -29847,7 +30078,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -29888,7 +30119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -29929,7 +30160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -29970,7 +30201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30032,7 +30263,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30073,7 +30304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30114,7 +30345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30155,7 +30386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30217,7 +30448,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -30282,7 +30513,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -30347,7 +30578,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -30412,7 +30643,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -30477,7 +30708,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -30539,7 +30770,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -30601,7 +30832,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -30663,7 +30894,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -30728,7 +30959,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -30793,7 +31024,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -30858,7 +31089,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -30923,7 +31154,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -30988,7 +31219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -31053,7 +31284,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -31118,7 +31349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -31183,7 +31414,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -31248,7 +31479,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -31310,7 +31541,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -31372,7 +31603,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>53</v>
       </c>
@@ -31434,7 +31665,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>54</v>
       </c>
@@ -31496,7 +31727,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>55</v>
       </c>
@@ -31558,7 +31789,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -31599,7 +31830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>57</v>
       </c>
@@ -31661,7 +31892,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>58</v>
       </c>
@@ -31723,7 +31954,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>59</v>
       </c>
@@ -31785,7 +32016,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>60</v>
       </c>
@@ -31826,7 +32057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>61</v>
       </c>
@@ -31888,7 +32119,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>62</v>
       </c>
@@ -31950,7 +32181,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>63</v>
       </c>
@@ -32012,7 +32243,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>64</v>
       </c>
@@ -32074,7 +32305,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>65</v>
       </c>
@@ -32136,7 +32367,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>66</v>
       </c>
@@ -32198,7 +32429,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>67</v>
       </c>
@@ -32260,7 +32491,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>68</v>
       </c>
@@ -32322,7 +32553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>69</v>
       </c>
@@ -32384,7 +32615,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>70</v>
       </c>
@@ -32446,7 +32677,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>71</v>
       </c>
@@ -32508,7 +32739,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>72</v>
       </c>
@@ -32570,7 +32801,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>73</v>
       </c>
@@ -32632,7 +32863,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>74</v>
       </c>
@@ -32694,7 +32925,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>75</v>
       </c>
@@ -32756,7 +32987,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>76</v>
       </c>
@@ -32818,7 +33049,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>77</v>
       </c>
@@ -32880,7 +33111,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>78</v>
       </c>
@@ -32942,7 +33173,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>79</v>
       </c>
@@ -33004,7 +33235,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>80</v>
       </c>
@@ -33066,7 +33297,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>81</v>
       </c>
@@ -33128,7 +33359,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>82</v>
       </c>
@@ -33190,7 +33421,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>83</v>
       </c>
@@ -33252,7 +33483,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>84</v>
       </c>
@@ -33314,7 +33545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>85</v>
       </c>
@@ -33376,7 +33607,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>86</v>
       </c>
@@ -33438,7 +33669,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>87</v>
       </c>
@@ -33500,7 +33731,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -33562,7 +33793,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>89</v>
       </c>
@@ -33624,7 +33855,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>90</v>
       </c>
@@ -33686,7 +33917,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>91</v>
       </c>
@@ -33748,7 +33979,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>92</v>
       </c>
@@ -33810,7 +34041,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>93</v>
       </c>
@@ -33875,7 +34106,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>94</v>
       </c>
@@ -33940,7 +34171,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
@@ -33981,7 +34212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>96</v>
       </c>
@@ -34022,7 +34253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>97</v>
       </c>
@@ -34063,7 +34294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>98</v>
       </c>
@@ -34125,7 +34356,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>99</v>
       </c>
@@ -34166,7 +34397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100</v>
       </c>
@@ -34207,7 +34438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>101</v>
       </c>
@@ -34248,7 +34479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>102</v>
       </c>
@@ -34310,7 +34541,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -34372,7 +34603,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>104</v>
       </c>
@@ -34437,7 +34668,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>105</v>
       </c>
@@ -34499,7 +34730,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>106</v>
       </c>
@@ -34561,7 +34792,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>107</v>
       </c>
@@ -34623,7 +34854,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>108</v>
       </c>
@@ -34688,7 +34919,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>109</v>
       </c>
@@ -34750,7 +34981,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>110</v>
       </c>
@@ -34812,7 +35043,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>111</v>
       </c>
@@ -34877,7 +35108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>112</v>
       </c>
@@ -34942,7 +35173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>113</v>
       </c>
@@ -35007,7 +35238,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>114</v>
       </c>
@@ -35072,7 +35303,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>115</v>
       </c>
@@ -35137,7 +35368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>116</v>
       </c>
@@ -35202,7 +35433,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>117</v>
       </c>
@@ -35267,7 +35498,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>118</v>
       </c>
@@ -35332,7 +35563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>119</v>
       </c>
@@ -35394,7 +35625,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>120</v>
       </c>
@@ -35459,7 +35690,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>129</v>
       </c>
@@ -35521,7 +35752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>130</v>
       </c>
@@ -35583,7 +35814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>131</v>
       </c>
@@ -35645,7 +35876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>132</v>
       </c>
@@ -35686,7 +35917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>133</v>
       </c>
@@ -35748,7 +35979,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>134</v>
       </c>
@@ -35810,7 +36041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>135</v>
       </c>
@@ -35872,7 +36103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>136</v>
       </c>
@@ -35913,7 +36144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>137</v>
       </c>
@@ -35975,7 +36206,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>138</v>
       </c>
@@ -36037,7 +36268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>139</v>
       </c>
@@ -36099,7 +36330,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>140</v>
       </c>
@@ -36161,7 +36392,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>141</v>
       </c>
@@ -36223,7 +36454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>142</v>
       </c>
@@ -36285,7 +36516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>143</v>
       </c>
@@ -36347,7 +36578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>144</v>
       </c>
@@ -36409,7 +36640,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>145</v>
       </c>
@@ -36471,7 +36702,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>146</v>
       </c>
@@ -36533,7 +36764,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>147</v>
       </c>
@@ -36595,7 +36826,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>148</v>
       </c>
@@ -36657,7 +36888,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>149</v>
       </c>
@@ -36719,7 +36950,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>150</v>
       </c>
@@ -36781,7 +37012,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>151</v>
       </c>
@@ -36843,7 +37074,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>152</v>
       </c>
@@ -36905,7 +37136,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="C138" t="s">
         <v>50</v>
@@ -36965,7 +37196,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="C139" t="s">
         <v>50</v>
@@ -37025,7 +37256,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="C140" t="s">
         <v>50</v>
@@ -37085,7 +37316,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="C141" t="s">
         <v>50</v>
@@ -37145,7 +37376,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="C142" t="s">
         <v>50</v>
@@ -37205,7 +37436,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="C143" t="s">
         <v>50</v>
@@ -37265,7 +37496,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="C144" t="s">
         <v>50</v>
@@ -37325,7 +37556,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="C145" t="s">
         <v>50</v>
@@ -37385,7 +37616,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="C146" t="s">
         <v>49</v>
@@ -37445,7 +37676,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="C147" t="s">
         <v>49</v>
@@ -37505,7 +37736,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="C148" t="s">
         <v>49</v>
@@ -37565,7 +37796,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="C149" t="s">
         <v>49</v>
@@ -37625,7 +37856,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="C150" t="s">
         <v>50</v>
@@ -37685,7 +37916,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="C151" t="s">
         <v>50</v>
@@ -37745,7 +37976,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="C152" t="s">
         <v>50</v>
@@ -37805,7 +38036,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="C153" t="s">
         <v>50</v>
@@ -37865,7 +38096,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="C154" t="s">
         <v>50</v>
@@ -37925,7 +38156,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="C155" t="s">
         <v>50</v>
@@ -37985,7 +38216,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="C156" t="s">
         <v>50</v>
@@ -38045,7 +38276,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="C157" t="s">
         <v>50</v>
@@ -38105,7 +38336,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="C158" t="s">
         <v>51</v>
@@ -38165,7 +38396,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="C159" t="s">
         <v>51</v>
@@ -38225,7 +38456,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="C160" t="s">
         <v>51</v>
@@ -38285,7 +38516,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="C161" t="s">
         <v>51</v>
@@ -38345,7 +38576,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="C162" t="s">
         <v>26</v>
@@ -38405,7 +38636,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="C163" t="s">
         <v>26</v>
@@ -38465,7 +38696,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="C164" t="s">
         <v>26</v>
@@ -38525,7 +38756,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="C165" t="s">
         <v>26</v>
@@ -38600,13 +38831,13 @@
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -38614,7 +38845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -38631,7 +38862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -38648,7 +38879,7 @@
         <v>17.261166666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -38665,7 +38896,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>65</v>
       </c>
@@ -38682,7 +38913,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -38699,7 +38930,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -38716,7 +38947,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
@@ -38733,7 +38964,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -38750,7 +38981,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -38767,7 +38998,7 @@
         <v>11.271666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -38784,7 +39015,7 @@
         <v>19.598333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -38801,7 +39032,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -38818,7 +39049,7 @@
         <v>31.229333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -38835,7 +39066,7 @@
         <v>2.9450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -38852,7 +39083,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -38869,7 +39100,7 @@
         <v>3.577</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -38900,13 +39131,13 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -38914,7 +39145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -38931,7 +39162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -38948,7 +39179,7 @@
         <v>17.215416666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -38965,7 +39196,7 @@
         <v>30.821166666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -38982,7 +39213,7 @@
         <v>30.705666666666662</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -38999,7 +39230,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39016,7 +39247,7 @@
         <v>3.6096666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -39033,7 +39264,7 @@
         <v>3.6336666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
@@ -39050,7 +39281,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -39067,7 +39298,7 @@
         <v>5.1000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39084,7 +39315,7 @@
         <v>7.8185000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -39101,7 +39332,7 @@
         <v>7.6696666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>65</v>
       </c>
@@ -39118,7 +39349,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39135,7 +39366,7 @@
         <v>2.3815</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -39152,7 +39383,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -39169,7 +39400,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39200,16 +39431,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39226,7 +39457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -39243,7 +39474,7 @@
         <v>11.305041666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -39260,7 +39491,7 @@
         <v>19.47966666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -39277,7 +39508,7 @@
         <v>7.8763333333333341</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39294,7 +39525,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39311,7 +39542,7 @@
         <v>3.1304166666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -39328,7 +39559,7 @@
         <v>2.6794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39345,7 +39576,7 @@
         <v>3.5813333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -39362,7 +39593,7 @@
         <v>10.437124999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39379,7 +39610,7 @@
         <v>17.441499999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -39396,7 +39627,7 @@
         <v>7.9049999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39413,7 +39644,7 @@
         <v>26.978000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39430,7 +39661,7 @@
         <v>3.4327500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
@@ -39447,7 +39678,7 @@
         <v>3.8265000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39464,7 +39695,7 @@
         <v>3.0390000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39495,17 +39726,17 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39513,7 +39744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39530,7 +39761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -39547,7 +39778,7 @@
         <v>38.1845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -39564,7 +39795,7 @@
         <v>4.2294999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -39581,7 +39812,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39598,7 +39829,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -39615,7 +39846,7 @@
         <v>72.139499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
@@ -39632,7 +39863,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39649,7 +39880,7 @@
         <v>80.858999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -39666,7 +39897,7 @@
         <v>4.9085000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -39683,7 +39914,7 @@
         <v>4.1710000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -39700,7 +39931,7 @@
         <v>4.1020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39717,7 +39948,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -39734,7 +39965,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>70</v>
       </c>
@@ -39751,7 +39982,7 @@
         <v>4.1520000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39768,7 +39999,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39799,15 +40030,15 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39815,7 +40046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39832,7 +40063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -39849,7 +40080,7 @@
         <v>60.886888888888883</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -39866,7 +40097,7 @@
         <v>67.159333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -39883,7 +40114,7 @@
         <v>59.291499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
@@ -39900,7 +40131,7 @@
         <v>82.894999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -39917,7 +40148,7 @@
         <v>57.750666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -39934,7 +40165,7 @@
         <v>52.870000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -39951,7 +40182,7 @@
         <v>62.631333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -39968,7 +40199,7 @@
         <v>4.5101111111111116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -39985,7 +40216,7 @@
         <v>4.4233333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -40002,7 +40233,7 @@
         <v>4.5125000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
@@ -40019,7 +40250,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -40036,7 +40267,7 @@
         <v>4.5534999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -40053,7 +40284,7 @@
         <v>4.3973333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -40070,7 +40301,7 @@
         <v>4.7096666666666662</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -40101,15 +40332,15 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40120,7 +40351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40131,7 +40362,7 @@
         <v>418.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40142,7 +40373,7 @@
         <v>411.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40153,7 +40384,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40164,7 +40395,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40175,7 +40406,7 @@
         <v>402.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40186,7 +40417,7 @@
         <v>551.125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40197,7 +40428,7 @@
         <v>576.70000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40208,7 +40439,7 @@
         <v>555.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40219,7 +40450,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40230,7 +40461,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40241,7 +40472,7 @@
         <v>2760.4749999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40252,7 +40483,7 @@
         <v>2791.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40263,7 +40494,7 @@
         <v>2790.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40274,7 +40505,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40285,7 +40516,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40306,18 +40537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FE8DC0-EF8B-43A4-B6C4-A02D6698FBDB}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40325,7 +40556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40333,7 +40564,7 @@
         <v>3.3420750000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40341,7 +40572,7 @@
         <v>3.5762</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40349,7 +40580,7 @@
         <v>2.9920999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40357,7 +40588,7 @@
         <v>3.3857999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40365,7 +40596,7 @@
         <v>3.4142000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40373,7 +40604,7 @@
         <v>5.6034999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40381,7 +40612,7 @@
         <v>6.1474000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40389,7 +40620,7 @@
         <v>5.3183000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40397,7 +40628,7 @@
         <v>5.6909999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40405,7 +40636,7 @@
         <v>5.2572999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40413,7 +40644,7 @@
         <v>101.48837499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40421,7 +40652,7 @@
         <v>101.43270000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40429,7 +40660,7 @@
         <v>101.36969999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40437,7 +40668,7 @@
         <v>101.76930000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40445,7 +40676,7 @@
         <v>101.3818</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40463,287 +40694,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE74D8D-E7FE-2C45-8D57-0DE64A54353A}">
   <dimension ref="A3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>21.420999999999999</v>
-      </c>
-      <c r="C4">
-        <v>52.713999999999999</v>
-      </c>
-      <c r="D4">
-        <v>111.26900000000002</v>
-      </c>
-      <c r="E4">
-        <v>245.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>1.7850833333333336</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4.3928333333333347</v>
+      </c>
+      <c r="D4" s="11">
+        <v>9.2724166666666665</v>
+      </c>
+      <c r="E4" s="11">
+        <v>20.494166666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>10.733999999999998</v>
-      </c>
-      <c r="C5">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="D5">
-        <v>63.821000000000005</v>
-      </c>
-      <c r="E5">
-        <v>132.79300000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.320333333333334</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10.636833333333334</v>
+      </c>
+      <c r="E5" s="11">
+        <v>22.132166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B6">
-        <v>5.3539999999999992</v>
-      </c>
-      <c r="C6">
-        <v>12.896000000000001</v>
-      </c>
-      <c r="D6">
-        <v>32.754000000000005</v>
-      </c>
-      <c r="E6">
-        <v>41.052999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>1.7846666666666664</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4.2986666666666666</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10.918000000000001</v>
+      </c>
+      <c r="E6" s="11">
+        <v>13.684333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>5.38</v>
-      </c>
-      <c r="C7">
-        <v>13.026</v>
-      </c>
-      <c r="D7">
-        <v>31.067</v>
-      </c>
-      <c r="E7">
-        <v>91.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.7933333333333332</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4.3419999999999996</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10.355666666666666</v>
+      </c>
+      <c r="E7" s="11">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>10.687000000000001</v>
-      </c>
-      <c r="C8">
-        <v>26.792000000000002</v>
-      </c>
-      <c r="D8">
-        <v>47.448000000000008</v>
-      </c>
-      <c r="E8">
-        <v>113.137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1.7811666666666668</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4.4653333333333336</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7.9079999999999986</v>
+      </c>
+      <c r="E8" s="11">
+        <v>18.856166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B9">
-        <v>5.34</v>
-      </c>
-      <c r="C9">
-        <v>13.370000000000001</v>
-      </c>
-      <c r="D9">
-        <v>16.408000000000001</v>
-      </c>
-      <c r="E9">
-        <v>21.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>1.78</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4.456666666666667</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5.469333333333334</v>
+      </c>
+      <c r="E9" s="11">
+        <v>7.0966666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>5.3470000000000004</v>
-      </c>
-      <c r="C10">
-        <v>13.422000000000001</v>
-      </c>
-      <c r="D10">
-        <v>31.040000000000003</v>
-      </c>
-      <c r="E10">
-        <v>91.847000000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1.7823333333333335</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10.346666666666668</v>
+      </c>
+      <c r="E10" s="11">
+        <v>30.615666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
-        <v>8.61</v>
-      </c>
-      <c r="C11">
-        <v>16.843</v>
-      </c>
-      <c r="D11">
-        <v>29.369</v>
-      </c>
-      <c r="E11">
-        <v>39.751000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.403583333333333</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2.4474166666666668</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.312583333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>4.3170000000000002</v>
-      </c>
-      <c r="C12">
-        <v>8.520999999999999</v>
-      </c>
-      <c r="D12">
-        <v>17.823</v>
-      </c>
-      <c r="E12">
-        <v>21.881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.4201666666666666</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.9704999999999999</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3.6468333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B13">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="C13">
-        <v>4.1289999999999996</v>
-      </c>
-      <c r="D13">
-        <v>8.9440000000000008</v>
-      </c>
-      <c r="E13">
-        <v>10.834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.3763333333333332</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.9813333333333336</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3.6113333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="C14">
-        <v>4.3919999999999995</v>
-      </c>
-      <c r="D14">
-        <v>8.8789999999999996</v>
-      </c>
-      <c r="E14">
-        <v>11.047000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.4639999999999997</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.9596666666666667</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3.6823333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>4.2929999999999993</v>
-      </c>
-      <c r="C15">
-        <v>8.3219999999999992</v>
-      </c>
-      <c r="D15">
-        <v>11.545999999999999</v>
-      </c>
-      <c r="E15">
-        <v>17.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.71549999999999991</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.3870000000000002</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.9243333333333332</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.9783333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B16">
-        <v>2.1369999999999996</v>
-      </c>
-      <c r="C16">
-        <v>4.08</v>
-      </c>
-      <c r="D16">
-        <v>5.1589999999999998</v>
-      </c>
-      <c r="E16">
-        <v>7.0869999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
+        <v>0.71233333333333315</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.7196666666666667</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2.3623333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>2.1559999999999997</v>
-      </c>
-      <c r="C17">
-        <v>4.242</v>
-      </c>
-      <c r="D17">
-        <v>6.3870000000000005</v>
-      </c>
-      <c r="E17">
-        <v>10.783000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.71866666666666656</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2.129</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3.5943333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>30.030999999999999</v>
-      </c>
-      <c r="C18">
-        <v>69.557000000000002</v>
-      </c>
-      <c r="D18">
-        <v>140.63800000000001</v>
-      </c>
-      <c r="E18">
-        <v>285.68100000000004</v>
+        <v>88</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.2512916666666669</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.8982083333333333</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5.859916666666666</v>
+      </c>
+      <c r="E18" s="11">
+        <v>11.903374999999999</v>
       </c>
     </row>
   </sheetData>
@@ -40760,15 +40993,15 @@
       <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -40833,7 +41066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>35</v>
       </c>
@@ -40898,7 +41131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>36</v>
       </c>
@@ -40963,7 +41196,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>37</v>
       </c>
@@ -41028,7 +41261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>38</v>
       </c>
@@ -41093,7 +41326,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>39</v>
       </c>
@@ -41158,7 +41391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -41223,7 +41456,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -41288,7 +41521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42</v>
       </c>
@@ -41353,7 +41586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>111</v>
       </c>
@@ -41418,7 +41651,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>112</v>
       </c>
@@ -41483,7 +41716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>113</v>
       </c>
@@ -41548,7 +41781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>114</v>
       </c>
@@ -41613,7 +41846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>115</v>
       </c>
@@ -41678,7 +41911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>116</v>
       </c>
@@ -41743,7 +41976,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>117</v>
       </c>
@@ -41808,7 +42041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>118</v>
       </c>
@@ -41873,7 +42106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -41935,7 +42168,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>32</v>
       </c>
@@ -41997,7 +42230,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>33</v>
       </c>
@@ -42059,7 +42292,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>43</v>
@@ -42122,7 +42355,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>43</v>
@@ -42185,7 +42418,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -42250,7 +42483,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43</v>
       </c>
@@ -42312,7 +42545,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44</v>
       </c>
@@ -42374,7 +42607,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>103</v>
       </c>
@@ -42436,7 +42669,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>43</v>
@@ -42499,7 +42732,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>43</v>
@@ -42562,7 +42795,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>104</v>
       </c>
@@ -42627,7 +42860,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>105</v>
       </c>
@@ -42689,7 +42922,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>106</v>
       </c>
@@ -42751,7 +42984,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>107</v>
       </c>
@@ -42813,7 +43046,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>43</v>
@@ -42876,7 +43109,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>43</v>
@@ -42939,7 +43172,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>108</v>
       </c>
@@ -43004,7 +43237,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>109</v>
       </c>
@@ -43066,7 +43299,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>110</v>
       </c>
@@ -43128,7 +43361,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>119</v>
       </c>
@@ -43190,7 +43423,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>43</v>
@@ -43253,7 +43486,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>43</v>
@@ -43316,7 +43549,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>120</v>
       </c>
@@ -43381,7 +43614,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>50</v>
@@ -43441,7 +43674,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>50</v>
@@ -43501,7 +43734,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>50</v>
@@ -43561,7 +43794,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>50</v>
@@ -43621,7 +43854,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
         <v>50</v>
@@ -43681,7 +43914,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
         <v>50</v>
@@ -43741,7 +43974,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
         <v>50</v>
@@ -43801,7 +44034,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
         <v>50</v>
@@ -43861,7 +44094,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
         <v>50</v>
@@ -43921,7 +44154,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" t="s">
         <v>50</v>
@@ -43981,7 +44214,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" t="s">
         <v>50</v>
@@ -44041,7 +44274,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" t="s">
         <v>50</v>
@@ -44101,7 +44334,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" t="s">
         <v>50</v>
@@ -44161,7 +44394,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -44221,7 +44454,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" t="s">
         <v>50</v>
@@ -44281,7 +44514,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" t="s">
         <v>50</v>
@@ -44341,7 +44574,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -44403,7 +44636,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -44465,7 +44698,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -44527,7 +44760,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -44589,7 +44822,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>5</v>
       </c>
@@ -44651,7 +44884,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -44713,7 +44946,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>7</v>
       </c>
@@ -44775,7 +45008,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>8</v>
       </c>
@@ -44837,7 +45070,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>77</v>
       </c>
@@ -44899,7 +45132,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>78</v>
       </c>
@@ -44961,7 +45194,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>79</v>
       </c>
@@ -45023,7 +45256,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>81</v>
       </c>
@@ -45085,7 +45318,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>82</v>
       </c>
@@ -45147,7 +45380,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>83</v>
       </c>
@@ -45209,7 +45442,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>140</v>
       </c>
@@ -45271,7 +45504,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>144</v>
       </c>
@@ -45351,27 +45584,27 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -45436,7 +45669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>53</v>
       </c>
@@ -45498,7 +45731,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>54</v>
       </c>
@@ -45560,7 +45793,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>55</v>
       </c>
@@ -45622,7 +45855,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>56</v>
       </c>
@@ -45663,7 +45896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>57</v>
       </c>
@@ -45725,7 +45958,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>58</v>
       </c>
@@ -45787,7 +46020,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>59</v>
       </c>
@@ -45849,7 +46082,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>60</v>
       </c>
@@ -45890,7 +46123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>129</v>
       </c>
@@ -45952,7 +46185,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>130</v>
       </c>
@@ -46014,7 +46247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>131</v>
       </c>
@@ -46076,7 +46309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>132</v>
       </c>
@@ -46117,7 +46350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>133</v>
       </c>
@@ -46179,7 +46412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>134</v>
       </c>
@@ -46241,7 +46474,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>135</v>
       </c>
@@ -46303,7 +46536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>136</v>
       </c>
@@ -46344,7 +46577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>61</v>
       </c>
@@ -46406,7 +46639,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -46468,7 +46701,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>63</v>
       </c>
@@ -46530,7 +46763,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>64</v>
       </c>
@@ -46592,7 +46825,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>65</v>
       </c>
@@ -46654,7 +46887,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>66</v>
       </c>
@@ -46716,7 +46949,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>67</v>
       </c>
@@ -46778,7 +47011,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>68</v>
       </c>
@@ -46840,7 +47073,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>80</v>
       </c>
@@ -46902,7 +47135,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>84</v>
       </c>
@@ -46964,7 +47197,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>137</v>
       </c>
@@ -47026,7 +47259,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>138</v>
       </c>
@@ -47088,7 +47321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>139</v>
       </c>
@@ -47150,7 +47383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>141</v>
       </c>
@@ -47212,7 +47445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>142</v>
       </c>
@@ -47274,7 +47507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>143</v>
       </c>
@@ -47336,7 +47569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -47398,7 +47631,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -47460,7 +47693,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -47522,7 +47755,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -47584,7 +47817,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -47646,7 +47879,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -47708,7 +47941,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -47770,7 +48003,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -47832,7 +48065,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>77</v>
       </c>
@@ -47894,7 +48127,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>78</v>
       </c>
@@ -47956,7 +48189,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>79</v>
       </c>
@@ -48018,7 +48251,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>81</v>
       </c>
@@ -48080,7 +48313,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>82</v>
       </c>
@@ -48142,7 +48375,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>83</v>
       </c>
@@ -48204,7 +48437,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>140</v>
       </c>
@@ -48266,7 +48499,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>144</v>
       </c>
@@ -48346,27 +48579,27 @@
       <selection activeCell="A2" sqref="A1:U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -48431,7 +48664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -48493,7 +48726,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -48555,7 +48788,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -48617,7 +48850,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -48679,7 +48912,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -48741,7 +48974,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -48803,7 +49036,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -48865,7 +49098,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -48927,7 +49160,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>77</v>
       </c>
@@ -48989,7 +49222,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>78</v>
       </c>
@@ -49051,7 +49284,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>79</v>
       </c>
@@ -49113,7 +49346,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>81</v>
       </c>
@@ -49175,7 +49408,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>82</v>
       </c>
@@ -49237,7 +49470,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>83</v>
       </c>
@@ -49299,7 +49532,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
@@ -49361,7 +49594,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>144</v>
       </c>
@@ -49423,7 +49656,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>69</v>
       </c>
@@ -49485,7 +49718,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>70</v>
       </c>
@@ -49547,7 +49780,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>71</v>
       </c>
@@ -49609,7 +49842,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>72</v>
       </c>
@@ -49671,7 +49904,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>73</v>
       </c>
@@ -49733,7 +49966,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>74</v>
       </c>
@@ -49795,7 +50028,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>75</v>
       </c>
@@ -49857,7 +50090,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>76</v>
       </c>
@@ -49919,7 +50152,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>145</v>
       </c>
@@ -49981,7 +50214,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>146</v>
       </c>
@@ -50043,7 +50276,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>147</v>
       </c>
@@ -50105,7 +50338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>148</v>
       </c>
@@ -50167,7 +50400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>149</v>
       </c>
@@ -50229,7 +50462,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>150</v>
       </c>
@@ -50291,7 +50524,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>151</v>
       </c>
@@ -50353,7 +50586,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>152</v>
       </c>
@@ -50427,10 +50660,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
@@ -50438,7 +50671,7 @@
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -50503,7 +50736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
@@ -50564,7 +50797,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -50625,7 +50858,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -50686,7 +50919,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -50747,7 +50980,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -50808,7 +51041,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -50869,7 +51102,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -50930,7 +51163,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -50991,7 +51224,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
@@ -51054,7 +51287,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -51115,7 +51348,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -51176,7 +51409,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -51237,7 +51470,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
@@ -51298,7 +51531,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
@@ -51359,7 +51592,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -51420,7 +51653,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -51481,7 +51714,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
@@ -51542,7 +51775,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -51603,7 +51836,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -51664,7 +51897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -51725,7 +51958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -51786,7 +52019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -51847,7 +52080,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -51908,7 +52141,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -51983,27 +52216,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -52068,7 +52301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -52133,7 +52366,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>29</v>
       </c>
@@ -52198,7 +52431,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>26</v>
@@ -52258,7 +52491,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -52323,7 +52556,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>18</v>
       </c>
@@ -52388,7 +52621,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>26</v>
@@ -52448,7 +52681,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>49</v>
@@ -52508,7 +52741,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>49</v>
@@ -52568,7 +52801,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>51</v>
@@ -52628,7 +52861,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>51</v>
@@ -52688,7 +52921,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>49</v>
@@ -52748,7 +52981,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>49</v>
@@ -52808,7 +53041,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>27</v>
       </c>
@@ -52873,7 +53106,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>28</v>
       </c>
@@ -52938,7 +53171,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -52997,7 +53230,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -53056,7 +53289,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -53115,7 +53348,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -53174,7 +53407,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -53233,7 +53466,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -53292,7 +53525,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
@@ -53351,7 +53584,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -53410,7 +53643,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -53469,7 +53702,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -53528,7 +53761,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -53587,7 +53820,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>51</v>
       </c>
@@ -53660,28 +53893,28 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -53743,7 +53976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>73</v>
       </c>
@@ -53802,7 +54035,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>73</v>
       </c>
@@ -53861,7 +54094,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>73</v>
       </c>
@@ -53920,7 +54153,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -53979,7 +54212,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>73</v>
       </c>
@@ -54038,7 +54271,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>73</v>
       </c>
@@ -54097,7 +54330,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>73</v>
       </c>
@@ -54156,7 +54389,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -54215,7 +54448,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -54274,7 +54507,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>73</v>
       </c>
@@ -54333,7 +54566,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>73</v>
       </c>
@@ -54392,7 +54625,7 @@
         <v>101346</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -54451,7 +54684,7 @@
         <v>102114</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>73</v>
       </c>
@@ -54510,7 +54743,7 @@
         <v>101341</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>73</v>
       </c>
@@ -54569,7 +54802,7 @@
         <v>101365</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -54628,7 +54861,7 @@
         <v>101256</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>73</v>
       </c>
@@ -54687,7 +54920,7 @@
         <v>101287</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -54746,7 +54979,7 @@
         <v>101389</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -54805,7 +55038,7 @@
         <v>101427</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>73</v>
       </c>
@@ -54864,7 +55097,7 @@
         <v>101466</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>73</v>
       </c>
@@ -54923,7 +55156,7 @@
         <v>101336</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -54982,7 +55215,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -55041,7 +55274,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>76</v>
       </c>
@@ -55100,7 +55333,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>76</v>
       </c>
@@ -55159,7 +55392,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>76</v>
       </c>
@@ -55218,7 +55451,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -55277,7 +55510,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -55336,7 +55569,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>76</v>
       </c>
@@ -55395,7 +55628,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>76</v>
       </c>
@@ -55454,7 +55687,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -55513,7 +55746,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>76</v>
       </c>
@@ -55572,7 +55805,7 @@
         <v>101275</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>76</v>
       </c>
@@ -55631,7 +55864,7 @@
         <v>101518</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>76</v>
       </c>
@@ -55690,7 +55923,7 @@
         <v>101433</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>76</v>
       </c>
@@ -55749,7 +55982,7 @@
         <v>101555</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>76</v>
       </c>
@@ -55808,7 +56041,7 @@
         <v>101392</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>76</v>
       </c>
@@ -55867,7 +56100,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>76</v>
       </c>
@@ -55926,7 +56159,7 @@
         <v>101240</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>76</v>
       </c>
@@ -55985,7 +56218,7 @@
         <v>101314</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>76</v>
       </c>
@@ -56044,7 +56277,7 @@
         <v>101587</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -56103,7 +56336,7 @@
         <v>101254</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -56162,7 +56395,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>75</v>
       </c>
@@ -56221,7 +56454,7 @@
         <v>5752</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>75</v>
       </c>
@@ -56280,7 +56513,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>75</v>
       </c>
@@ -56339,7 +56572,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>75</v>
       </c>
@@ -56398,7 +56631,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>75</v>
       </c>
@@ -56457,7 +56690,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -56516,7 +56749,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>75</v>
       </c>
@@ -56575,7 +56808,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>75</v>
       </c>
@@ -56634,7 +56867,7 @@
         <v>6608</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>75</v>
       </c>
@@ -56693,7 +56926,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>75</v>
       </c>
@@ -56752,7 +56985,7 @@
         <v>101338</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>75</v>
       </c>
@@ -56811,7 +57044,7 @@
         <v>101332</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -56870,7 +57103,7 @@
         <v>102094</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>75</v>
       </c>
@@ -56929,7 +57162,7 @@
         <v>102489</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>75</v>
       </c>
@@ -56988,7 +57221,7 @@
         <v>102317</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>75</v>
       </c>
@@ -57047,7 +57280,7 @@
         <v>100644</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>75</v>
       </c>
@@ -57106,7 +57339,7 @@
         <v>101624</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>75</v>
       </c>
@@ -57165,7 +57398,7 @@
         <v>102407</v>
       </c>
     </row>
-    <row r="60" spans="3:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -57224,7 +57457,7 @@
         <v>100757</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>75</v>
       </c>
@@ -57283,7 +57516,7 @@
         <v>102691</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>74</v>
       </c>
@@ -57342,7 +57575,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -57401,7 +57634,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>74</v>
       </c>
@@ -57460,7 +57693,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>74</v>
       </c>
@@ -57519,7 +57752,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>74</v>
       </c>
@@ -57578,7 +57811,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>74</v>
       </c>
@@ -57637,7 +57870,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>74</v>
       </c>
@@ -57696,7 +57929,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>74</v>
       </c>
@@ -57755,7 +57988,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -57814,7 +58047,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>74</v>
       </c>
@@ -57873,7 +58106,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>74</v>
       </c>
@@ -57932,7 +58165,7 @@
         <v>101467</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>74</v>
       </c>
@@ -57991,7 +58224,7 @@
         <v>101852</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>74</v>
       </c>
@@ -58050,7 +58283,7 @@
         <v>101508</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -58109,7 +58342,7 @@
         <v>101502</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>74</v>
       </c>
@@ -58168,7 +58401,7 @@
         <v>101283</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>74</v>
       </c>
@@ -58227,7 +58460,7 @@
         <v>101408</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>74</v>
       </c>
@@ -58286,7 +58519,7 @@
         <v>101174</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>74</v>
       </c>
@@ -58345,7 +58578,7 @@
         <v>101166</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -58404,7 +58637,7 @@
         <v>101165</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>74</v>
       </c>
@@ -58463,7 +58696,7 @@
         <v>101172</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>73</v>
       </c>
@@ -58522,7 +58755,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>73</v>
       </c>
@@ -58581,7 +58814,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>73</v>
       </c>
@@ -58640,7 +58873,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>73</v>
       </c>
@@ -58699,7 +58932,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>73</v>
       </c>
@@ -58758,7 +58991,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>76</v>
       </c>
@@ -58817,7 +59050,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>76</v>
       </c>
@@ -58876,7 +59109,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>76</v>
       </c>
@@ -58935,7 +59168,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>76</v>
       </c>
@@ -58994,7 +59227,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>76</v>
       </c>
@@ -59053,7 +59286,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>75</v>
       </c>
@@ -59112,7 +59345,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>75</v>
       </c>
@@ -59171,7 +59404,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>75</v>
       </c>
@@ -59230,7 +59463,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>75</v>
       </c>
@@ -59289,7 +59522,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>75</v>
       </c>
@@ -59348,7 +59581,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>74</v>
       </c>
@@ -59407,7 +59640,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>74</v>
       </c>
@@ -59466,7 +59699,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>74</v>
       </c>
@@ -59525,7 +59758,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>74</v>
       </c>
@@ -59584,7 +59817,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>74</v>
       </c>
@@ -59643,7 +59876,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>73</v>
       </c>
@@ -59702,7 +59935,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>73</v>
       </c>
@@ -59761,7 +59994,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>73</v>
       </c>
@@ -59820,7 +60053,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>73</v>
       </c>
@@ -59879,7 +60112,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>73</v>
       </c>
@@ -59938,7 +60171,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>76</v>
       </c>
@@ -59997,7 +60230,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>76</v>
       </c>
@@ -60056,7 +60289,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>76</v>
       </c>
@@ -60115,7 +60348,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>76</v>
       </c>
@@ -60174,7 +60407,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>76</v>
       </c>
@@ -60233,7 +60466,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>75</v>
       </c>
@@ -60292,7 +60525,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>75</v>
       </c>
@@ -60351,7 +60584,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>75</v>
       </c>
@@ -60410,7 +60643,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>75</v>
       </c>
@@ -60469,7 +60702,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>75</v>
       </c>
@@ -60528,7 +60761,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>74</v>
       </c>
@@ -60587,7 +60820,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>74</v>
       </c>
@@ -60646,7 +60879,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>74</v>
       </c>
@@ -60705,7 +60938,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>74</v>
       </c>
@@ -60764,7 +60997,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>74</v>
       </c>
@@ -60838,13 +61071,13 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -60852,7 +61085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -60869,7 +61102,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -60886,7 +61119,7 @@
         <v>16.831916666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -60903,7 +61136,7 @@
         <v>2.5808333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -60920,7 +61153,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -60937,7 +61170,7 @@
         <v>2.4213333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -60954,7 +61187,7 @@
         <v>1.2613333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -60971,7 +61204,7 @@
         <v>3.5813333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -61002,13 +61235,13 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -61025,7 +61258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -61042,7 +61275,7 @@
         <v>16.845124999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -61059,7 +61292,7 @@
         <v>30.280666666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -61076,7 +61309,7 @@
         <v>29.304833333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -61093,7 +61326,7 @@
         <v>31.256499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -61110,7 +61343,7 @@
         <v>3.4095833333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -61127,7 +61360,7 @@
         <v>3.1893333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -61144,7 +61377,7 @@
         <v>3.6298333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
@@ -61161,7 +61394,7 @@
         <v>19.030999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -61178,7 +61411,7 @@
         <v>34.987749999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -61195,7 +61428,7 @@
         <v>37.586833333333324</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
@@ -61212,7 +61445,7 @@
         <v>27.1905</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -61229,7 +61462,7 @@
         <v>3.0742499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -61246,7 +61479,7 @@
         <v>2.7271666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
@@ -61263,7 +61496,7 @@
         <v>4.1154999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>

--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\PROJECTS\ImageLoadingMasters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2115906C-6FE1-46FD-BFD4-5FC0E1B7D8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCE84C-50CF-D341-9139-E05450279C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32265" yWindow="-14925" windowWidth="32670" windowHeight="17640" firstSheet="8" activeTab="16" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="3" activeTab="4" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT DATA" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
-    <pivotCache cacheId="1" r:id="rId19"/>
-    <pivotCache cacheId="2" r:id="rId20"/>
-    <pivotCache cacheId="3" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
-    <pivotCache cacheId="5" r:id="rId23"/>
-    <pivotCache cacheId="6" r:id="rId24"/>
+    <pivotCache cacheId="6" r:id="rId18"/>
+    <pivotCache cacheId="7" r:id="rId19"/>
+    <pivotCache cacheId="8" r:id="rId20"/>
+    <pivotCache cacheId="9" r:id="rId21"/>
+    <pivotCache cacheId="10" r:id="rId22"/>
+    <pivotCache cacheId="11" r:id="rId23"/>
+    <pivotCache cacheId="12" r:id="rId24"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="91">
   <si>
     <t>Technika optymalizacji</t>
   </si>
@@ -337,6 +337,12 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>WEBP STRATNY</t>
+  </si>
+  <si>
+    <t>AVIF BEZSTRATNY</t>
+  </si>
 </sst>
 </file>
 
@@ -406,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,10 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,7 +450,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1498,7 +1503,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1613,7 +1618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1670,7 +1675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1727,7 +1732,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1784,7 +1789,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1857,7 +1862,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2020,7 +2025,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2183,7 +2188,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2346,7 +2351,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pl-PL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2596,7 +2601,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2704,7 +2709,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4137,7 +4142,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5348,7 +5353,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6787,7 +6792,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7998,7 +8003,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9265,7 +9270,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10799,7 +10804,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11712,7 +11717,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12206,7 +12211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Suma</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26791,7 +26796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26940,7 +26945,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27109,7 +27114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27316,7 +27321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27495,7 +27500,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27710,7 +27715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27879,7 +27884,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -28058,7 +28063,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -28273,7 +28278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28420,7 +28425,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28549,9 +28554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -28589,7 +28594,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -28695,7 +28700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28871,27 +28876,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -28956,7 +28961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -29018,7 +29023,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -29080,7 +29085,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -29142,7 +29147,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -29204,7 +29209,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -29266,7 +29271,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -29328,7 +29333,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -29390,7 +29395,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -29452,7 +29457,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -29514,7 +29519,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -29576,7 +29581,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -29638,7 +29643,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -29700,7 +29705,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -29762,7 +29767,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -29824,7 +29829,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -29886,7 +29891,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -29948,7 +29953,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -30013,7 +30018,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -30078,7 +30083,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30119,7 +30124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30160,7 +30165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30201,7 +30206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30263,7 +30268,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30304,7 +30309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30345,7 +30350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30386,7 +30391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30448,7 +30453,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -30513,7 +30518,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -30578,7 +30583,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -30643,7 +30648,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -30708,7 +30713,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -30770,7 +30775,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -30832,7 +30837,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -30894,7 +30899,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -30959,7 +30964,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -31024,7 +31029,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -31089,7 +31094,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -31154,7 +31159,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -31219,7 +31224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -31284,7 +31289,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -31349,7 +31354,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -31414,7 +31419,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -31479,7 +31484,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -31541,7 +31546,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -31603,7 +31608,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>53</v>
       </c>
@@ -31665,7 +31670,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>54</v>
       </c>
@@ -31727,7 +31732,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>55</v>
       </c>
@@ -31789,7 +31794,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -31830,7 +31835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>57</v>
       </c>
@@ -31892,7 +31897,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>58</v>
       </c>
@@ -31954,7 +31959,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>59</v>
       </c>
@@ -32016,7 +32021,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>60</v>
       </c>
@@ -32057,7 +32062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>61</v>
       </c>
@@ -32119,7 +32124,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>62</v>
       </c>
@@ -32181,7 +32186,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>63</v>
       </c>
@@ -32243,7 +32248,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>64</v>
       </c>
@@ -32305,7 +32310,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>65</v>
       </c>
@@ -32367,7 +32372,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>66</v>
       </c>
@@ -32429,7 +32434,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>67</v>
       </c>
@@ -32491,7 +32496,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>68</v>
       </c>
@@ -32553,7 +32558,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>69</v>
       </c>
@@ -32615,7 +32620,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>70</v>
       </c>
@@ -32677,7 +32682,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>71</v>
       </c>
@@ -32739,7 +32744,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>72</v>
       </c>
@@ -32801,7 +32806,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>73</v>
       </c>
@@ -32863,7 +32868,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>74</v>
       </c>
@@ -32925,7 +32930,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>75</v>
       </c>
@@ -32987,7 +32992,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>76</v>
       </c>
@@ -33049,7 +33054,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>77</v>
       </c>
@@ -33111,7 +33116,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>78</v>
       </c>
@@ -33173,7 +33178,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>79</v>
       </c>
@@ -33235,7 +33240,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>80</v>
       </c>
@@ -33297,7 +33302,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>81</v>
       </c>
@@ -33359,7 +33364,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>82</v>
       </c>
@@ -33421,7 +33426,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>83</v>
       </c>
@@ -33483,7 +33488,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>84</v>
       </c>
@@ -33545,7 +33550,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>85</v>
       </c>
@@ -33607,7 +33612,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>86</v>
       </c>
@@ -33669,7 +33674,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>87</v>
       </c>
@@ -33731,7 +33736,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -33793,7 +33798,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>89</v>
       </c>
@@ -33855,7 +33860,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>90</v>
       </c>
@@ -33917,7 +33922,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>91</v>
       </c>
@@ -33979,7 +33984,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>92</v>
       </c>
@@ -34041,7 +34046,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>93</v>
       </c>
@@ -34106,7 +34111,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>94</v>
       </c>
@@ -34171,7 +34176,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>95</v>
       </c>
@@ -34212,7 +34217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>96</v>
       </c>
@@ -34253,7 +34258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>97</v>
       </c>
@@ -34294,7 +34299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>98</v>
       </c>
@@ -34356,7 +34361,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>99</v>
       </c>
@@ -34397,7 +34402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>100</v>
       </c>
@@ -34438,7 +34443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>101</v>
       </c>
@@ -34479,7 +34484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>102</v>
       </c>
@@ -34541,7 +34546,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -34603,7 +34608,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>104</v>
       </c>
@@ -34668,7 +34673,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>105</v>
       </c>
@@ -34730,7 +34735,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>106</v>
       </c>
@@ -34792,7 +34797,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>107</v>
       </c>
@@ -34854,7 +34859,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>108</v>
       </c>
@@ -34919,7 +34924,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>109</v>
       </c>
@@ -34981,7 +34986,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>110</v>
       </c>
@@ -35043,7 +35048,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>111</v>
       </c>
@@ -35108,7 +35113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>112</v>
       </c>
@@ -35173,7 +35178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>113</v>
       </c>
@@ -35238,7 +35243,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>114</v>
       </c>
@@ -35303,7 +35308,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>115</v>
       </c>
@@ -35368,7 +35373,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>116</v>
       </c>
@@ -35433,7 +35438,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>117</v>
       </c>
@@ -35498,7 +35503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>118</v>
       </c>
@@ -35563,7 +35568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>119</v>
       </c>
@@ -35625,7 +35630,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>120</v>
       </c>
@@ -35690,7 +35695,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>129</v>
       </c>
@@ -35752,7 +35757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>130</v>
       </c>
@@ -35814,7 +35819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>131</v>
       </c>
@@ -35876,7 +35881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>132</v>
       </c>
@@ -35917,7 +35922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>133</v>
       </c>
@@ -35979,7 +35984,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>134</v>
       </c>
@@ -36041,7 +36046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>135</v>
       </c>
@@ -36103,7 +36108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>136</v>
       </c>
@@ -36144,7 +36149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>137</v>
       </c>
@@ -36206,7 +36211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>138</v>
       </c>
@@ -36268,7 +36273,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>139</v>
       </c>
@@ -36330,7 +36335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>140</v>
       </c>
@@ -36392,7 +36397,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>141</v>
       </c>
@@ -36454,7 +36459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>142</v>
       </c>
@@ -36516,7 +36521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>143</v>
       </c>
@@ -36578,7 +36583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>144</v>
       </c>
@@ -36640,7 +36645,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>145</v>
       </c>
@@ -36702,7 +36707,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>146</v>
       </c>
@@ -36764,7 +36769,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>147</v>
       </c>
@@ -36826,7 +36831,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>148</v>
       </c>
@@ -36888,7 +36893,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>149</v>
       </c>
@@ -36950,7 +36955,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>150</v>
       </c>
@@ -37012,7 +37017,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>151</v>
       </c>
@@ -37074,7 +37079,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>152</v>
       </c>
@@ -37136,7 +37141,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="C138" t="s">
         <v>50</v>
@@ -37196,7 +37201,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="C139" t="s">
         <v>50</v>
@@ -37256,7 +37261,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="C140" t="s">
         <v>50</v>
@@ -37316,7 +37321,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="C141" t="s">
         <v>50</v>
@@ -37376,7 +37381,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="C142" t="s">
         <v>50</v>
@@ -37436,7 +37441,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="C143" t="s">
         <v>50</v>
@@ -37496,7 +37501,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="C144" t="s">
         <v>50</v>
@@ -37556,7 +37561,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="C145" t="s">
         <v>50</v>
@@ -37616,7 +37621,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="C146" t="s">
         <v>49</v>
@@ -37676,7 +37681,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="C147" t="s">
         <v>49</v>
@@ -37736,7 +37741,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="C148" t="s">
         <v>49</v>
@@ -37796,7 +37801,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="C149" t="s">
         <v>49</v>
@@ -37856,7 +37861,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="C150" t="s">
         <v>50</v>
@@ -37916,7 +37921,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="C151" t="s">
         <v>50</v>
@@ -37976,7 +37981,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="C152" t="s">
         <v>50</v>
@@ -38036,7 +38041,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="C153" t="s">
         <v>50</v>
@@ -38096,7 +38101,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="C154" t="s">
         <v>50</v>
@@ -38156,7 +38161,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="C155" t="s">
         <v>50</v>
@@ -38216,7 +38221,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="C156" t="s">
         <v>50</v>
@@ -38276,7 +38281,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="C157" t="s">
         <v>50</v>
@@ -38336,7 +38341,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="C158" t="s">
         <v>51</v>
@@ -38396,7 +38401,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="C159" t="s">
         <v>51</v>
@@ -38456,7 +38461,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="C160" t="s">
         <v>51</v>
@@ -38516,7 +38521,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="C161" t="s">
         <v>51</v>
@@ -38576,7 +38581,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="C162" t="s">
         <v>26</v>
@@ -38636,7 +38641,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="C163" t="s">
         <v>26</v>
@@ -38696,7 +38701,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="C164" t="s">
         <v>26</v>
@@ -38756,7 +38761,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="C165" t="s">
         <v>26</v>
@@ -38831,13 +38836,13 @@
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -38845,7 +38850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -38862,7 +38867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -38879,7 +38884,7 @@
         <v>17.261166666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -38896,7 +38901,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>65</v>
       </c>
@@ -38913,7 +38918,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -38930,7 +38935,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -38947,7 +38952,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
@@ -38964,7 +38969,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -38981,7 +38986,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -38998,7 +39003,7 @@
         <v>11.271666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39015,7 +39020,7 @@
         <v>19.598333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -39032,7 +39037,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39049,7 +39054,7 @@
         <v>31.229333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39066,7 +39071,7 @@
         <v>2.9450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -39083,7 +39088,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39100,7 +39105,7 @@
         <v>3.577</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39131,13 +39136,13 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39145,7 +39150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39162,7 +39167,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -39179,7 +39184,7 @@
         <v>17.215416666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -39196,7 +39201,7 @@
         <v>30.821166666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -39213,7 +39218,7 @@
         <v>30.705666666666662</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -39230,7 +39235,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39247,7 +39252,7 @@
         <v>3.6096666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -39264,7 +39269,7 @@
         <v>3.6336666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
@@ -39281,7 +39286,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -39298,7 +39303,7 @@
         <v>5.1000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39315,7 +39320,7 @@
         <v>7.8185000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -39332,7 +39337,7 @@
         <v>7.6696666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>65</v>
       </c>
@@ -39349,7 +39354,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39366,7 +39371,7 @@
         <v>2.3815</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -39383,7 +39388,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -39400,7 +39405,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39431,16 +39436,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39457,7 +39462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -39474,7 +39479,7 @@
         <v>11.305041666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -39491,7 +39496,7 @@
         <v>19.47966666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -39508,7 +39513,7 @@
         <v>7.8763333333333341</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39525,7 +39530,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39542,7 +39547,7 @@
         <v>3.1304166666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -39559,7 +39564,7 @@
         <v>2.6794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39576,7 +39581,7 @@
         <v>3.5813333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -39593,7 +39598,7 @@
         <v>10.437124999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39610,7 +39615,7 @@
         <v>17.441499999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -39627,7 +39632,7 @@
         <v>7.9049999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39644,7 +39649,7 @@
         <v>26.978000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39661,7 +39666,7 @@
         <v>3.4327500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
@@ -39678,7 +39683,7 @@
         <v>3.8265000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39695,7 +39700,7 @@
         <v>3.0390000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39726,17 +39731,17 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39744,7 +39749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39761,7 +39766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -39778,7 +39783,7 @@
         <v>38.1845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -39795,7 +39800,7 @@
         <v>4.2294999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -39812,7 +39817,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39829,7 +39834,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -39846,7 +39851,7 @@
         <v>72.139499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
@@ -39863,7 +39868,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39880,7 +39885,7 @@
         <v>80.858999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -39897,7 +39902,7 @@
         <v>4.9085000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -39914,7 +39919,7 @@
         <v>4.1710000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -39931,7 +39936,7 @@
         <v>4.1020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39948,7 +39953,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -39965,7 +39970,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>70</v>
       </c>
@@ -39982,7 +39987,7 @@
         <v>4.1520000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39999,7 +40004,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -40030,15 +40035,15 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -40046,7 +40051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -40063,7 +40068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -40080,7 +40085,7 @@
         <v>60.886888888888883</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -40097,7 +40102,7 @@
         <v>67.159333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -40114,7 +40119,7 @@
         <v>59.291499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
@@ -40131,7 +40136,7 @@
         <v>82.894999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -40148,7 +40153,7 @@
         <v>57.750666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -40165,7 +40170,7 @@
         <v>52.870000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -40182,7 +40187,7 @@
         <v>62.631333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -40199,7 +40204,7 @@
         <v>4.5101111111111116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -40216,7 +40221,7 @@
         <v>4.4233333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -40233,7 +40238,7 @@
         <v>4.5125000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
@@ -40250,7 +40255,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -40267,7 +40272,7 @@
         <v>4.5534999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -40284,7 +40289,7 @@
         <v>4.3973333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -40301,7 +40306,7 @@
         <v>4.7096666666666662</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -40332,15 +40337,15 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40351,7 +40356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40362,7 +40367,7 @@
         <v>418.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40373,7 +40378,7 @@
         <v>411.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40384,7 +40389,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40395,7 +40400,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40406,7 +40411,7 @@
         <v>402.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40417,7 +40422,7 @@
         <v>551.125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40428,7 +40433,7 @@
         <v>576.70000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40439,7 +40444,7 @@
         <v>555.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40450,7 +40455,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40461,7 +40466,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40472,7 +40477,7 @@
         <v>2760.4749999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40483,7 +40488,7 @@
         <v>2791.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40494,7 +40499,7 @@
         <v>2790.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40505,7 +40510,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40516,7 +40521,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40541,14 +40546,14 @@
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40556,7 +40561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40564,7 +40569,7 @@
         <v>3.3420750000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40572,7 +40577,7 @@
         <v>3.5762</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40580,7 +40585,7 @@
         <v>2.9920999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40588,7 +40593,7 @@
         <v>3.3857999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40596,7 +40601,7 @@
         <v>3.4142000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40604,7 +40609,7 @@
         <v>5.6034999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40612,7 +40617,7 @@
         <v>6.1474000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40620,7 +40625,7 @@
         <v>5.3183000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40628,7 +40633,7 @@
         <v>5.6909999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40636,7 +40641,7 @@
         <v>5.2572999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40644,7 +40649,7 @@
         <v>101.48837499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40652,7 +40657,7 @@
         <v>101.43270000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40660,7 +40665,7 @@
         <v>101.36969999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40668,7 +40673,7 @@
         <v>101.76930000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40676,7 +40681,7 @@
         <v>101.3818</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40694,20 +40699,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE74D8D-E7FE-2C45-8D57-0DE64A54353A}">
   <dimension ref="A3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -40724,258 +40729,258 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>1.7850833333333336</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
         <v>4.3928333333333347</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4">
         <v>9.2724166666666665</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>20.494166666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>1.7889999999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5">
         <v>4.320333333333334</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5">
         <v>10.636833333333334</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <v>22.132166666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>1.7846666666666664</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
         <v>4.2986666666666666</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6">
         <v>10.918000000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <v>13.684333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>1.7933333333333332</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>4.3419999999999996</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>10.355666666666666</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>30.58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>1.7811666666666668</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>4.4653333333333336</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8">
         <v>7.9079999999999986</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>18.856166666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>1.78</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
         <v>4.456666666666667</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9">
         <v>5.469333333333334</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>7.0966666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>1.7823333333333335</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10">
         <v>4.4740000000000002</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10">
         <v>10.346666666666668</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>30.615666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>0.71749999999999992</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11">
         <v>1.403583333333333</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11">
         <v>2.4474166666666668</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11">
         <v>3.312583333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>0.71950000000000003</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12">
         <v>1.4201666666666666</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>2.9704999999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>3.6468333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>0.71699999999999997</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13">
         <v>1.3763333333333332</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>2.9813333333333336</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>3.6113333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14">
         <v>0.72199999999999998</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14">
         <v>1.4639999999999997</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14">
         <v>2.9596666666666667</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14">
         <v>3.6823333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15">
         <v>0.71549999999999991</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15">
         <v>1.3870000000000002</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15">
         <v>1.9243333333333332</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
         <v>2.9783333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>0.71233333333333315</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16">
         <v>1.36</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>1.7196666666666667</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>2.3623333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>0.71866666666666656</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17">
         <v>1.4139999999999999</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17">
         <v>2.129</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>3.5943333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>1.2512916666666669</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18">
         <v>2.8982083333333333</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18">
         <v>5.859916666666666</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>11.903374999999999</v>
       </c>
     </row>
@@ -40993,15 +40998,15 @@
       <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -41066,7 +41071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>35</v>
       </c>
@@ -41131,7 +41136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>36</v>
       </c>
@@ -41196,7 +41201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>37</v>
       </c>
@@ -41261,7 +41266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>38</v>
       </c>
@@ -41326,7 +41331,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>39</v>
       </c>
@@ -41391,7 +41396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -41456,7 +41461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -41521,7 +41526,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42</v>
       </c>
@@ -41586,7 +41591,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>111</v>
       </c>
@@ -41651,7 +41656,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>112</v>
       </c>
@@ -41716,7 +41721,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>113</v>
       </c>
@@ -41781,7 +41786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>114</v>
       </c>
@@ -41846,7 +41851,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>115</v>
       </c>
@@ -41911,7 +41916,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>116</v>
       </c>
@@ -41976,7 +41981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>117</v>
       </c>
@@ -42041,7 +42046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>118</v>
       </c>
@@ -42106,7 +42111,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -42168,7 +42173,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>32</v>
       </c>
@@ -42230,7 +42235,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>33</v>
       </c>
@@ -42292,7 +42297,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>43</v>
@@ -42355,7 +42360,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>43</v>
@@ -42418,7 +42423,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -42483,7 +42488,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43</v>
       </c>
@@ -42545,7 +42550,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44</v>
       </c>
@@ -42607,7 +42612,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>103</v>
       </c>
@@ -42669,7 +42674,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>43</v>
@@ -42732,7 +42737,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>43</v>
@@ -42795,7 +42800,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>104</v>
       </c>
@@ -42860,7 +42865,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>105</v>
       </c>
@@ -42922,7 +42927,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>106</v>
       </c>
@@ -42984,7 +42989,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>107</v>
       </c>
@@ -43046,7 +43051,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>43</v>
@@ -43109,7 +43114,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>43</v>
@@ -43172,7 +43177,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>108</v>
       </c>
@@ -43237,7 +43242,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>109</v>
       </c>
@@ -43299,7 +43304,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>110</v>
       </c>
@@ -43361,7 +43366,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>119</v>
       </c>
@@ -43423,7 +43428,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>43</v>
@@ -43486,7 +43491,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>43</v>
@@ -43549,7 +43554,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>120</v>
       </c>
@@ -43614,7 +43619,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>50</v>
@@ -43674,7 +43679,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>50</v>
@@ -43734,7 +43739,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>50</v>
@@ -43794,7 +43799,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>50</v>
@@ -43854,7 +43859,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
         <v>50</v>
@@ -43914,7 +43919,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
         <v>50</v>
@@ -43974,7 +43979,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
         <v>50</v>
@@ -44034,7 +44039,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
         <v>50</v>
@@ -44094,7 +44099,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
         <v>50</v>
@@ -44154,7 +44159,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="C51" t="s">
         <v>50</v>
@@ -44214,7 +44219,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="C52" t="s">
         <v>50</v>
@@ -44274,7 +44279,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="C53" t="s">
         <v>50</v>
@@ -44334,7 +44339,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="C54" t="s">
         <v>50</v>
@@ -44394,7 +44399,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -44454,7 +44459,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="C56" t="s">
         <v>50</v>
@@ -44514,7 +44519,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="C57" t="s">
         <v>50</v>
@@ -44574,7 +44579,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -44636,7 +44641,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -44698,7 +44703,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -44760,7 +44765,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -44822,7 +44827,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>5</v>
       </c>
@@ -44884,7 +44889,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -44946,7 +44951,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>7</v>
       </c>
@@ -45008,7 +45013,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>8</v>
       </c>
@@ -45070,7 +45075,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>77</v>
       </c>
@@ -45132,7 +45137,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>78</v>
       </c>
@@ -45194,7 +45199,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>79</v>
       </c>
@@ -45256,7 +45261,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>81</v>
       </c>
@@ -45318,7 +45323,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>82</v>
       </c>
@@ -45380,7 +45385,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>83</v>
       </c>
@@ -45442,7 +45447,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>140</v>
       </c>
@@ -45504,7 +45509,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>144</v>
       </c>
@@ -45584,27 +45589,27 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -45669,7 +45674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>53</v>
       </c>
@@ -45731,7 +45736,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>54</v>
       </c>
@@ -45793,7 +45798,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>55</v>
       </c>
@@ -45855,7 +45860,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>56</v>
       </c>
@@ -45896,7 +45901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>57</v>
       </c>
@@ -45958,7 +45963,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>58</v>
       </c>
@@ -46020,7 +46025,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>59</v>
       </c>
@@ -46082,7 +46087,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>60</v>
       </c>
@@ -46123,7 +46128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>129</v>
       </c>
@@ -46185,7 +46190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>130</v>
       </c>
@@ -46247,7 +46252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>131</v>
       </c>
@@ -46309,7 +46314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>132</v>
       </c>
@@ -46350,7 +46355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>133</v>
       </c>
@@ -46412,7 +46417,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>134</v>
       </c>
@@ -46474,7 +46479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>135</v>
       </c>
@@ -46536,7 +46541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>136</v>
       </c>
@@ -46577,7 +46582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>61</v>
       </c>
@@ -46639,7 +46644,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -46701,7 +46706,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>63</v>
       </c>
@@ -46763,7 +46768,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>64</v>
       </c>
@@ -46825,7 +46830,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>65</v>
       </c>
@@ -46887,7 +46892,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>66</v>
       </c>
@@ -46949,7 +46954,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>67</v>
       </c>
@@ -47011,7 +47016,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>68</v>
       </c>
@@ -47073,7 +47078,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>80</v>
       </c>
@@ -47135,7 +47140,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>84</v>
       </c>
@@ -47197,7 +47202,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>137</v>
       </c>
@@ -47259,7 +47264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>138</v>
       </c>
@@ -47321,7 +47326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>139</v>
       </c>
@@ -47383,7 +47388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>141</v>
       </c>
@@ -47445,7 +47450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>142</v>
       </c>
@@ -47507,7 +47512,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>143</v>
       </c>
@@ -47569,7 +47574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -47631,7 +47636,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -47693,7 +47698,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -47755,7 +47760,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -47817,7 +47822,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -47879,7 +47884,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -47941,7 +47946,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -48003,7 +48008,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -48065,7 +48070,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>77</v>
       </c>
@@ -48127,7 +48132,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>78</v>
       </c>
@@ -48189,7 +48194,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>79</v>
       </c>
@@ -48251,7 +48256,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>81</v>
       </c>
@@ -48313,7 +48318,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>82</v>
       </c>
@@ -48375,7 +48380,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>83</v>
       </c>
@@ -48437,7 +48442,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>140</v>
       </c>
@@ -48499,7 +48504,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>144</v>
       </c>
@@ -48579,27 +48584,27 @@
       <selection activeCell="A2" sqref="A1:U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -48664,7 +48669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -48726,7 +48731,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -48788,7 +48793,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -48850,7 +48855,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -48912,7 +48917,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -48974,7 +48979,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -49036,7 +49041,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -49098,7 +49103,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -49160,7 +49165,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>77</v>
       </c>
@@ -49222,7 +49227,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>78</v>
       </c>
@@ -49284,7 +49289,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>79</v>
       </c>
@@ -49346,7 +49351,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>81</v>
       </c>
@@ -49408,7 +49413,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>82</v>
       </c>
@@ -49470,7 +49475,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>83</v>
       </c>
@@ -49532,7 +49537,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>140</v>
       </c>
@@ -49594,7 +49599,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>144</v>
       </c>
@@ -49656,7 +49661,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>69</v>
       </c>
@@ -49718,7 +49723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>70</v>
       </c>
@@ -49780,7 +49785,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>71</v>
       </c>
@@ -49842,7 +49847,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>72</v>
       </c>
@@ -49904,7 +49909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>73</v>
       </c>
@@ -49966,7 +49971,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>74</v>
       </c>
@@ -50028,7 +50033,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>75</v>
       </c>
@@ -50090,7 +50095,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>76</v>
       </c>
@@ -50152,7 +50157,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>145</v>
       </c>
@@ -50214,7 +50219,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>146</v>
       </c>
@@ -50276,7 +50281,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>147</v>
       </c>
@@ -50338,7 +50343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>148</v>
       </c>
@@ -50400,7 +50405,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>149</v>
       </c>
@@ -50462,7 +50467,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>150</v>
       </c>
@@ -50524,7 +50529,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>151</v>
       </c>
@@ -50586,7 +50591,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>152</v>
       </c>
@@ -50656,22 +50661,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21586A7D-B8C0-CA44-91B0-75208C196576}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -50736,7 +50744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
@@ -50797,7 +50805,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -50858,7 +50866,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -50919,7 +50927,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -50980,7 +50988,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -51041,7 +51049,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -51102,7 +51110,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -51163,7 +51171,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -51224,7 +51232,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
@@ -51287,7 +51295,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -51348,7 +51356,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -51409,7 +51417,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -51470,7 +51478,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
@@ -51531,7 +51539,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
@@ -51592,7 +51600,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -51653,7 +51661,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -51714,7 +51722,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
@@ -51775,7 +51783,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -51836,7 +51844,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -51897,7 +51905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -51958,7 +51966,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -52019,7 +52027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -52080,7 +52088,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -52141,7 +52149,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -52200,6 +52208,1422 @@
       </c>
       <c r="U25" s="9">
         <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H26" s="9">
+        <v>90</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="P26" s="9">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>13.026</v>
+      </c>
+      <c r="R26" s="9">
+        <v>14.095000000000001</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H27" s="9">
+        <v>90</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1.776</v>
+      </c>
+      <c r="P27" s="9">
+        <v>4.2190000000000003</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>12.618</v>
+      </c>
+      <c r="R27" s="9">
+        <v>13.632</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0.377</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1.784</v>
+      </c>
+      <c r="P28" s="9">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="R28" s="9">
+        <v>9.6340000000000003</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H29" s="9">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P29">
+        <v>1.484</v>
+      </c>
+      <c r="Q29">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="R29">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="S29">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H30" s="9">
+        <v>90</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="P30">
+        <v>1.407</v>
+      </c>
+      <c r="Q30">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="R30">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="S30">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H31" s="9">
+        <v>90</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P31">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="R31">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H32" s="9">
+        <v>90</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32">
+        <v>1.78</v>
+      </c>
+      <c r="P32">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="Q32">
+        <v>5.742</v>
+      </c>
+      <c r="R32">
+        <v>6.5540000000000003</v>
+      </c>
+      <c r="S32">
+        <v>0.217</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H33" s="9">
+        <v>90</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P33">
+        <v>4.38</v>
+      </c>
+      <c r="Q33">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="R33">
+        <v>6.931</v>
+      </c>
+      <c r="S33">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H34" s="9">
+        <v>90</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="P34">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="Q34">
+        <v>5.0439999999999996</v>
+      </c>
+      <c r="R34">
+        <v>6.6779999999999999</v>
+      </c>
+      <c r="S34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H35" s="9">
+        <v>90</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35">
+        <v>0.71</v>
+      </c>
+      <c r="P35">
+        <v>1.391</v>
+      </c>
+      <c r="Q35">
+        <v>1.827</v>
+      </c>
+      <c r="R35">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="S35">
+        <v>0.217</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H36" s="9">
+        <v>90</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P36">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="Q36">
+        <v>1.653</v>
+      </c>
+      <c r="R36">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="S36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H37" s="9">
+        <v>90</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P37">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>1.548</v>
+      </c>
+      <c r="R37">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="S37">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H38" s="9">
+        <v>90</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="P38">
+        <v>4.383</v>
+      </c>
+      <c r="Q38">
+        <v>9.0879999999999992</v>
+      </c>
+      <c r="R38">
+        <v>13.914</v>
+      </c>
+      <c r="S38">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H39" s="9">
+        <v>90</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39">
+        <v>1.782</v>
+      </c>
+      <c r="P39">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="Q39">
+        <v>8.141</v>
+      </c>
+      <c r="R39">
+        <v>12.103999999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H40" s="9">
+        <v>90</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40">
+        <v>1.788</v>
+      </c>
+      <c r="P40">
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="Q40">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="R40">
+        <v>10.209</v>
+      </c>
+      <c r="S40">
+        <v>0.377</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H41" s="9">
+        <v>90</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="P41">
+        <v>1.403</v>
+      </c>
+      <c r="Q41">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="R41">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="S41">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H42" s="9">
+        <v>90</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="P42">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="Q42">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="R42">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="S42">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H43" s="9">
+        <v>90</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="P43">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="R43">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="S43">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H44" s="9">
+        <v>90</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44">
+        <v>1.79</v>
+      </c>
+      <c r="P44">
+        <v>4.3540000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="R44">
+        <v>7.4770000000000003</v>
+      </c>
+      <c r="S44">
+        <v>0.217</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H45" s="9">
+        <v>90</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45">
+        <v>1.776</v>
+      </c>
+      <c r="P45">
+        <v>4.43</v>
+      </c>
+      <c r="Q45">
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="R45">
+        <v>7.1760000000000002</v>
+      </c>
+      <c r="S45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H46" s="9">
+        <v>90</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="P46">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>5.31</v>
+      </c>
+      <c r="R46">
+        <v>7.4889999999999999</v>
+      </c>
+      <c r="S46">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H47" s="9">
+        <v>90</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="P47">
+        <v>1.409</v>
+      </c>
+      <c r="Q47">
+        <v>1.919</v>
+      </c>
+      <c r="R47">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="S47">
+        <v>0.217</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H48" s="9">
+        <v>90</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="P48">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>1.65</v>
+      </c>
+      <c r="R48">
+        <v>2.254</v>
+      </c>
+      <c r="S48">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1920</v>
+      </c>
+      <c r="H49" s="9">
+        <v>90</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="P49">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="R49">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="S49">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -52216,27 +53640,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -52301,7 +53725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -52366,7 +53790,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>29</v>
       </c>
@@ -52431,7 +53855,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>26</v>
@@ -52491,7 +53915,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -52556,7 +53980,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>18</v>
       </c>
@@ -52621,7 +54045,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>26</v>
@@ -52681,7 +54105,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>49</v>
@@ -52741,7 +54165,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>49</v>
@@ -52801,7 +54225,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>51</v>
@@ -52861,7 +54285,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>51</v>
@@ -52921,7 +54345,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>49</v>
@@ -52981,7 +54405,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>49</v>
@@ -53041,7 +54465,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>27</v>
       </c>
@@ -53106,7 +54530,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>28</v>
       </c>
@@ -53171,7 +54595,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -53230,7 +54654,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -53289,7 +54713,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -53348,7 +54772,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -53407,7 +54831,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -53466,7 +54890,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -53525,7 +54949,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>51</v>
       </c>
@@ -53584,7 +55008,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -53643,7 +55067,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -53702,7 +55126,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -53761,7 +55185,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -53820,7 +55244,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>51</v>
       </c>
@@ -53893,28 +55317,28 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -53976,7 +55400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>73</v>
       </c>
@@ -54035,7 +55459,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>73</v>
       </c>
@@ -54094,7 +55518,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>73</v>
       </c>
@@ -54153,7 +55577,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -54212,7 +55636,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>73</v>
       </c>
@@ -54271,7 +55695,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>73</v>
       </c>
@@ -54330,7 +55754,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>73</v>
       </c>
@@ -54389,7 +55813,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -54448,7 +55872,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -54507,7 +55931,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>73</v>
       </c>
@@ -54566,7 +55990,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>73</v>
       </c>
@@ -54625,7 +56049,7 @@
         <v>101346</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -54684,7 +56108,7 @@
         <v>102114</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>73</v>
       </c>
@@ -54743,7 +56167,7 @@
         <v>101341</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>73</v>
       </c>
@@ -54802,7 +56226,7 @@
         <v>101365</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -54861,7 +56285,7 @@
         <v>101256</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>73</v>
       </c>
@@ -54920,7 +56344,7 @@
         <v>101287</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -54979,7 +56403,7 @@
         <v>101389</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -55038,7 +56462,7 @@
         <v>101427</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>73</v>
       </c>
@@ -55097,7 +56521,7 @@
         <v>101466</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>73</v>
       </c>
@@ -55156,7 +56580,7 @@
         <v>101336</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -55215,7 +56639,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -55274,7 +56698,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>76</v>
       </c>
@@ -55333,7 +56757,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>76</v>
       </c>
@@ -55392,7 +56816,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>76</v>
       </c>
@@ -55451,7 +56875,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -55510,7 +56934,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -55569,7 +56993,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>76</v>
       </c>
@@ -55628,7 +57052,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>76</v>
       </c>
@@ -55687,7 +57111,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -55746,7 +57170,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>76</v>
       </c>
@@ -55805,7 +57229,7 @@
         <v>101275</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>76</v>
       </c>
@@ -55864,7 +57288,7 @@
         <v>101518</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>76</v>
       </c>
@@ -55923,7 +57347,7 @@
         <v>101433</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>76</v>
       </c>
@@ -55982,7 +57406,7 @@
         <v>101555</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>76</v>
       </c>
@@ -56041,7 +57465,7 @@
         <v>101392</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>76</v>
       </c>
@@ -56100,7 +57524,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>76</v>
       </c>
@@ -56159,7 +57583,7 @@
         <v>101240</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>76</v>
       </c>
@@ -56218,7 +57642,7 @@
         <v>101314</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>76</v>
       </c>
@@ -56277,7 +57701,7 @@
         <v>101587</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -56336,7 +57760,7 @@
         <v>101254</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -56395,7 +57819,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>75</v>
       </c>
@@ -56454,7 +57878,7 @@
         <v>5752</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>75</v>
       </c>
@@ -56513,7 +57937,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>75</v>
       </c>
@@ -56572,7 +57996,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>75</v>
       </c>
@@ -56631,7 +58055,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>75</v>
       </c>
@@ -56690,7 +58114,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -56749,7 +58173,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>75</v>
       </c>
@@ -56808,7 +58232,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>75</v>
       </c>
@@ -56867,7 +58291,7 @@
         <v>6608</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>75</v>
       </c>
@@ -56926,7 +58350,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>75</v>
       </c>
@@ -56985,7 +58409,7 @@
         <v>101338</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>75</v>
       </c>
@@ -57044,7 +58468,7 @@
         <v>101332</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -57103,7 +58527,7 @@
         <v>102094</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>75</v>
       </c>
@@ -57162,7 +58586,7 @@
         <v>102489</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>75</v>
       </c>
@@ -57221,7 +58645,7 @@
         <v>102317</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>75</v>
       </c>
@@ -57280,7 +58704,7 @@
         <v>100644</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>75</v>
       </c>
@@ -57339,7 +58763,7 @@
         <v>101624</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>75</v>
       </c>
@@ -57398,7 +58822,7 @@
         <v>102407</v>
       </c>
     </row>
-    <row r="60" spans="3:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -57457,7 +58881,7 @@
         <v>100757</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>75</v>
       </c>
@@ -57516,7 +58940,7 @@
         <v>102691</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>74</v>
       </c>
@@ -57575,7 +58999,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -57634,7 +59058,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>74</v>
       </c>
@@ -57693,7 +59117,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>74</v>
       </c>
@@ -57752,7 +59176,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>74</v>
       </c>
@@ -57811,7 +59235,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>74</v>
       </c>
@@ -57870,7 +59294,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>74</v>
       </c>
@@ -57929,7 +59353,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>74</v>
       </c>
@@ -57988,7 +59412,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -58047,7 +59471,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>74</v>
       </c>
@@ -58106,7 +59530,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>74</v>
       </c>
@@ -58165,7 +59589,7 @@
         <v>101467</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>74</v>
       </c>
@@ -58224,7 +59648,7 @@
         <v>101852</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>74</v>
       </c>
@@ -58283,7 +59707,7 @@
         <v>101508</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -58342,7 +59766,7 @@
         <v>101502</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>74</v>
       </c>
@@ -58401,7 +59825,7 @@
         <v>101283</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>74</v>
       </c>
@@ -58460,7 +59884,7 @@
         <v>101408</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>74</v>
       </c>
@@ -58519,7 +59943,7 @@
         <v>101174</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>74</v>
       </c>
@@ -58578,7 +60002,7 @@
         <v>101166</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -58637,7 +60061,7 @@
         <v>101165</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>74</v>
       </c>
@@ -58696,7 +60120,7 @@
         <v>101172</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>73</v>
       </c>
@@ -58755,7 +60179,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>73</v>
       </c>
@@ -58814,7 +60238,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>73</v>
       </c>
@@ -58873,7 +60297,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>73</v>
       </c>
@@ -58932,7 +60356,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>73</v>
       </c>
@@ -58991,7 +60415,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>76</v>
       </c>
@@ -59050,7 +60474,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>76</v>
       </c>
@@ -59109,7 +60533,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>76</v>
       </c>
@@ -59168,7 +60592,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>76</v>
       </c>
@@ -59227,7 +60651,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>76</v>
       </c>
@@ -59286,7 +60710,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>75</v>
       </c>
@@ -59345,7 +60769,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>75</v>
       </c>
@@ -59404,7 +60828,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>75</v>
       </c>
@@ -59463,7 +60887,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>75</v>
       </c>
@@ -59522,7 +60946,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>75</v>
       </c>
@@ -59581,7 +61005,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>74</v>
       </c>
@@ -59640,7 +61064,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>74</v>
       </c>
@@ -59699,7 +61123,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>74</v>
       </c>
@@ -59758,7 +61182,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>74</v>
       </c>
@@ -59817,7 +61241,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>74</v>
       </c>
@@ -59876,7 +61300,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>73</v>
       </c>
@@ -59935,7 +61359,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>73</v>
       </c>
@@ -59994,7 +61418,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>73</v>
       </c>
@@ -60053,7 +61477,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>73</v>
       </c>
@@ -60112,7 +61536,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>73</v>
       </c>
@@ -60171,7 +61595,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>76</v>
       </c>
@@ -60230,7 +61654,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>76</v>
       </c>
@@ -60289,7 +61713,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>76</v>
       </c>
@@ -60348,7 +61772,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>76</v>
       </c>
@@ -60407,7 +61831,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>76</v>
       </c>
@@ -60466,7 +61890,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>75</v>
       </c>
@@ -60525,7 +61949,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>75</v>
       </c>
@@ -60584,7 +62008,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>75</v>
       </c>
@@ -60643,7 +62067,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>75</v>
       </c>
@@ -60702,7 +62126,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>75</v>
       </c>
@@ -60761,7 +62185,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>74</v>
       </c>
@@ -60820,7 +62244,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>74</v>
       </c>
@@ -60879,7 +62303,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>74</v>
       </c>
@@ -60938,7 +62362,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>74</v>
       </c>
@@ -60997,7 +62421,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>74</v>
       </c>
@@ -61071,13 +62495,13 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -61085,7 +62509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -61102,7 +62526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -61119,7 +62543,7 @@
         <v>16.831916666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -61136,7 +62560,7 @@
         <v>2.5808333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -61153,7 +62577,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -61170,7 +62594,7 @@
         <v>2.4213333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -61187,7 +62611,7 @@
         <v>1.2613333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -61204,7 +62628,7 @@
         <v>3.5813333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -61235,13 +62659,13 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -61258,7 +62682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -61275,7 +62699,7 @@
         <v>16.845124999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -61292,7 +62716,7 @@
         <v>30.280666666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -61309,7 +62733,7 @@
         <v>29.304833333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -61326,7 +62750,7 @@
         <v>31.256499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -61343,7 +62767,7 @@
         <v>3.4095833333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -61360,7 +62784,7 @@
         <v>3.1893333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -61377,7 +62801,7 @@
         <v>3.6298333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
@@ -61394,7 +62818,7 @@
         <v>19.030999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -61411,7 +62835,7 @@
         <v>34.987749999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -61428,7 +62852,7 @@
         <v>37.586833333333324</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
@@ -61445,7 +62869,7 @@
         <v>27.1905</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -61462,7 +62886,7 @@
         <v>3.0742499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -61479,7 +62903,7 @@
         <v>2.7271666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
@@ -61496,7 +62920,7 @@
         <v>4.1154999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>

--- a/Techniki optymalizacji pomiary.xlsx
+++ b/Techniki optymalizacji pomiary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubradzik/Desktop/ImageLoadingMasters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Desktop\ImageLoadingMasters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCE84C-50CF-D341-9139-E05450279C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF7255-BDD2-4395-BAB7-8C6A0AD28E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="3" activeTab="4" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" firstSheet="5" activeTab="17" xr2:uid="{B0684AC5-3D7D-6944-B857-760A35108AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT DATA" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="CDN HTTP" sheetId="16" r:id="rId15"/>
     <sheet name="CDN HTTP (LCP)" sheetId="17" r:id="rId16"/>
     <sheet name="HISRC+HTML5.1" sheetId="19" r:id="rId17"/>
+    <sheet name="HISRC HTML5.1 AVIF WEBP" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CURRENT DATA'!$A$1:$U$165</definedName>
@@ -41,13 +42,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId18"/>
-    <pivotCache cacheId="7" r:id="rId19"/>
-    <pivotCache cacheId="8" r:id="rId20"/>
-    <pivotCache cacheId="9" r:id="rId21"/>
-    <pivotCache cacheId="10" r:id="rId22"/>
-    <pivotCache cacheId="11" r:id="rId23"/>
-    <pivotCache cacheId="12" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId21"/>
+    <pivotCache cacheId="3" r:id="rId22"/>
+    <pivotCache cacheId="4" r:id="rId23"/>
+    <pivotCache cacheId="5" r:id="rId24"/>
+    <pivotCache cacheId="6" r:id="rId25"/>
+    <pivotCache cacheId="13" r:id="rId26"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="91">
   <si>
     <t>Technika optymalizacji</t>
   </si>
@@ -412,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,6 +432,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2601,6 +2604,876 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981582096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Techniki optymalizacji pomiary.xlsx]HISRC HTML5.1 AVIF WEBP!Tabela przestawna1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$A$4:$A$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>DESKTOP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Urządzenie mobilne</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>DESKTOP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Urządzenie mobilne</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3G (400Kbps 400ms RTT)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4G (9 Mbps, 170ms RTT)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$B$4:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.561333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9236666666666675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3246666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.469333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5806666666666658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6986666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9813333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0383333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7196666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7143333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14C4-4152-90B6-E3EA9233DD61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> LCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$A$4:$A$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AVIF BEZSTRATNY</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>JPEG</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>WEBP STRATNY</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>DESKTOP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Urządzenie mobilne</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>DESKTOP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Urządzenie mobilne</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3G (400Kbps 400ms RTT)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4G (9 Mbps, 170ms RTT)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HISRC HTML5.1 AVIF WEBP'!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12.453666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.684333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.075666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3806666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.859666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6113333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4483333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1193333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3623333333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2810000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-14C4-4152-90B6-E3EA9233DD61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1346567007"/>
+        <c:axId val="1346552607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1346567007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346552607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346552607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
               <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
@@ -2636,7 +3509,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="981582096"/>
+        <c:crossAx val="1346567007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12715,6 +13588,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13539,6 +14452,509 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18147,6 +19563,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5FAA2A-A9FF-6360-9268-753E90C5E0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19096,6 +20553,97 @@
     </cacheField>
     <cacheField name="Page weight [kB]" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="115" maxValue="1545"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jakub Radzik" refreshedDate="45787.66464884259" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{3A9C5113-44B9-4083-9A77-813D31BDC0B1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:U49" sheet="DATA - HISRC+HTML5.1"/>
+  </cacheSource>
+  <cacheFields count="21">
+    <cacheField name="lp" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Uwagi" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Technika optymalizacji" numFmtId="0">
+      <sharedItems count="2">
+        <s v="REFERENCJA"/>
+        <s v="HISRC + HTML 5.1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ilość obrazów" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Obraz" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Format" numFmtId="0">
+      <sharedItems count="3">
+        <s v="JPEG"/>
+        <s v="AVIF BEZSTRATNY"/>
+        <s v="WEBP STRATNY"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="szerokosc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1920" maxValue="1920"/>
+    </cacheField>
+    <cacheField name="Jakość zdjęcia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="90"/>
+    </cacheField>
+    <cacheField name="Poziom kompresji" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Przeglądarka" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Urządzenie" numFmtId="0">
+      <sharedItems count="2">
+        <s v="DESKTOP"/>
+        <s v="MOBILE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rozdzielczość" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Jakość Sieci" numFmtId="0">
+      <sharedItems count="2">
+        <s v="3G (400Kbps 400ms RTT)"/>
+        <s v="4G (9 Mbps, 170ms RTT)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Protokół" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="TTFB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.70399999999999996" maxValue="1.796"/>
+    </cacheField>
+    <cacheField name="FCP" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3029999999999999" maxValue="4.5170000000000003"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.548" maxValue="15.973000000000001"/>
+    </cacheField>
+    <cacheField name="LCP" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0630000000000002" maxValue="37.886000000000003"/>
+    </cacheField>
+    <cacheField name="CLS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.5000000000000006E-2" maxValue="1"/>
+    </cacheField>
+    <cacheField name="TBT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Page weight [kB]" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="95" maxValue="1545"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -26795,8 +28343,1117 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7929999999999999"/>
+    <n v="4.4950000000000001"/>
+    <n v="12.178000000000001"/>
+    <n v="37.875"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.796"/>
+    <n v="4.2629999999999999"/>
+    <n v="9.5559999999999992"/>
+    <n v="31.791"/>
+    <n v="0.53100000000000003"/>
+    <n v="0"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7909999999999999"/>
+    <n v="4.2679999999999998"/>
+    <n v="9.3330000000000002"/>
+    <n v="22.074000000000002"/>
+    <n v="0.53100000000000003"/>
+    <n v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71599999999999997"/>
+    <n v="1.409"/>
+    <n v="3.06"/>
+    <n v="3.9350000000000001"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71299999999999997"/>
+    <n v="1.41"/>
+    <n v="2.9079999999999999"/>
+    <n v="3.7170000000000001"/>
+    <n v="0.53100000000000003"/>
+    <n v="0"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.73699999999999999"/>
+    <n v="1.573"/>
+    <n v="2.911"/>
+    <n v="3.395"/>
+    <n v="0.53100000000000003"/>
+    <n v="0"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71899999999999997"/>
+    <n v="1.4419999999999999"/>
+    <n v="2.6560000000000001"/>
+    <n v="3.8980000000000001"/>
+    <n v="0.38100000000000001"/>
+    <n v="0"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71799999999999997"/>
+    <n v="1.3280000000000001"/>
+    <n v="1.873"/>
+    <n v="3.6139999999999999"/>
+    <n v="0.20300000000000001"/>
+    <n v="0"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <s v=","/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71899999999999997"/>
+    <n v="1.472"/>
+    <n v="1.8580000000000001"/>
+    <n v="3.2709999999999999"/>
+    <n v="0.20300000000000001"/>
+    <n v="0"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.78"/>
+    <n v="4.4480000000000004"/>
+    <n v="15.973000000000001"/>
+    <n v="37.886000000000003"/>
+    <n v="0.38100000000000001"/>
+    <n v="0"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7789999999999999"/>
+    <n v="4.4660000000000002"/>
+    <n v="7.9039999999999999"/>
+    <n v="31.748000000000001"/>
+    <n v="0.20300000000000001"/>
+    <n v="0"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.788"/>
+    <n v="4.508"/>
+    <n v="7.1630000000000003"/>
+    <n v="22.213000000000001"/>
+    <n v="0.20300000000000001"/>
+    <n v="0"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7869999999999999"/>
+    <n v="4.3479999999999999"/>
+    <n v="9.2129999999999992"/>
+    <n v="15.539"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="481"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.792"/>
+    <n v="4.24"/>
+    <n v="12.808"/>
+    <n v="13.856999999999999"/>
+    <n v="0.377"/>
+    <n v="0"/>
+    <n v="433"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7749999999999999"/>
+    <n v="4.3079999999999998"/>
+    <n v="10.733000000000001"/>
+    <n v="11.657"/>
+    <n v="0.377"/>
+    <n v="0"/>
+    <n v="330"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.72"/>
+    <n v="1.345"/>
+    <n v="3.0680000000000001"/>
+    <n v="3.8969999999999998"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71499999999999997"/>
+    <n v="1.3759999999999999"/>
+    <n v="2.9620000000000002"/>
+    <n v="3.6509999999999998"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="1266"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71599999999999997"/>
+    <n v="1.4079999999999999"/>
+    <n v="2.9140000000000001"/>
+    <n v="3.286"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7809999999999999"/>
+    <n v="4.4029999999999996"/>
+    <n v="5.9829999999999997"/>
+    <n v="7.0679999999999996"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7749999999999999"/>
+    <n v="4.45"/>
+    <n v="5.1790000000000003"/>
+    <n v="7.0890000000000004"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.784"/>
+    <n v="4.5170000000000003"/>
+    <n v="5.2460000000000004"/>
+    <n v="7.133"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.70399999999999996"/>
+    <n v="1.347"/>
+    <n v="1.8779999999999999"/>
+    <n v="2.2850000000000001"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="144"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.72099999999999997"/>
+    <n v="1.4019999999999999"/>
+    <n v="1.7010000000000001"/>
+    <n v="2.5339999999999998"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="148"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="0"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71199999999999997"/>
+    <n v="1.331"/>
+    <n v="1.58"/>
+    <n v="2.2679999999999998"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7909999999999999"/>
+    <n v="4.3010000000000002"/>
+    <n v="13.026"/>
+    <n v="14.095000000000001"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.776"/>
+    <n v="4.2190000000000003"/>
+    <n v="12.618"/>
+    <n v="13.632"/>
+    <n v="0.377"/>
+    <n v="0"/>
+    <n v="411"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.784"/>
+    <n v="4.2969999999999997"/>
+    <n v="9.0399999999999991"/>
+    <n v="9.6340000000000003"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="229"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.81499999999999995"/>
+    <n v="1.484"/>
+    <n v="2.8610000000000002"/>
+    <n v="3.0179999999999998"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="439"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71799999999999997"/>
+    <n v="1.407"/>
+    <n v="2.7610000000000001"/>
+    <n v="2.9390000000000001"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="404"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71499999999999997"/>
+    <n v="1.3440000000000001"/>
+    <n v="2.4740000000000002"/>
+    <n v="2.6219999999999999"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="229"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.78"/>
+    <n v="4.4530000000000003"/>
+    <n v="5.742"/>
+    <n v="6.5540000000000003"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7849999999999999"/>
+    <n v="4.38"/>
+    <n v="5.1879999999999997"/>
+    <n v="6.931"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7729999999999999"/>
+    <n v="4.3129999999999997"/>
+    <n v="5.0439999999999996"/>
+    <n v="6.6779999999999999"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71"/>
+    <n v="1.391"/>
+    <n v="1.827"/>
+    <n v="2.1120000000000001"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.70399999999999996"/>
+    <n v="1.3740000000000001"/>
+    <n v="1.653"/>
+    <n v="2.1829999999999998"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="1"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.70899999999999996"/>
+    <n v="1.3240000000000001"/>
+    <n v="1.548"/>
+    <n v="2.0630000000000002"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7889999999999999"/>
+    <n v="4.383"/>
+    <n v="9.0879999999999992"/>
+    <n v="13.914"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="431"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.782"/>
+    <n v="4.2990000000000004"/>
+    <n v="8.141"/>
+    <n v="12.103999999999999"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="352"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.788"/>
+    <n v="4.3079999999999998"/>
+    <n v="9.5419999999999998"/>
+    <n v="10.209"/>
+    <n v="0.377"/>
+    <n v="0"/>
+    <n v="259"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.70799999999999996"/>
+    <n v="1.403"/>
+    <n v="3.1960000000000002"/>
+    <n v="3.9350000000000001"/>
+    <n v="0.82799999999999996"/>
+    <n v="0"/>
+    <n v="1302"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71099999999999997"/>
+    <n v="1.3580000000000001"/>
+    <n v="3.0150000000000001"/>
+    <n v="3.3069999999999999"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="0"/>
+    <s v="1920x1080"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71099999999999997"/>
+    <n v="1.3580000000000001"/>
+    <n v="2.9039999999999999"/>
+    <n v="3.1030000000000002"/>
+    <n v="0.39800000000000002"/>
+    <n v="0"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.79"/>
+    <n v="4.3540000000000001"/>
+    <n v="6.2309999999999999"/>
+    <n v="7.4770000000000003"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.776"/>
+    <n v="4.43"/>
+    <n v="5.2009999999999996"/>
+    <n v="7.1760000000000002"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="0"/>
+    <s v="HTTP/1.1"/>
+    <n v="1.7869999999999999"/>
+    <n v="4.3959999999999999"/>
+    <n v="5.31"/>
+    <n v="7.4889999999999999"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Twarz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71699999999999997"/>
+    <n v="1.409"/>
+    <n v="1.919"/>
+    <n v="2.3260000000000001"/>
+    <n v="0.217"/>
+    <n v="0"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Krajobraz"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.71099999999999997"/>
+    <n v="1.3180000000000001"/>
+    <n v="1.65"/>
+    <n v="2.254"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="113"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Panorama miasta"/>
+    <x v="2"/>
+    <n v="1920"/>
+    <n v="90"/>
+    <s v="-"/>
+    <s v="Chrome"/>
+    <x v="1"/>
+    <s v="393x659"/>
+    <x v="1"/>
+    <s v="HTTP/1.1"/>
+    <n v="0.72299999999999998"/>
+    <n v="1.3029999999999999"/>
+    <n v="1.5740000000000001"/>
+    <n v="2.2629999999999999"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0"/>
+    <n v="118"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27AC8EB-58CA-4886-91DA-C2036AB458B6}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26945,7 +29602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF809351-955B-BD45-93E1-064F6D56ECE5}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27113,8 +29770,173 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{916017FB-36AE-44C3-8E67-C9810517D613}" name="Tabela przestawna1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item n="Urządzenie mobilne" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="12"/>
+    <field x="10"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name=" SI" fld="16" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name=" LCP" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87236E3-EF6C-4096-9F4F-67D012CD3134}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27321,7 +30143,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9B1F5F4-32FC-4D91-8AD2-6F19801CD550}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27500,7 +30322,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38093954-BA02-45FA-BDA8-F525EAE45B03}" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27715,7 +30537,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F329666B-BF68-4A4A-9BD7-7F23C5B5A58F}" name="Tabela przestawna3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -27884,7 +30706,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1881777D-BE21-4384-AF24-7D7C916DD5F0}" name="Tabela przestawna4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -28063,7 +30885,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F597FC-53DE-3545-AB73-82309781B70D}" name="Tabela przestawna4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -28278,7 +31100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D54346A6-E408-4B2A-BAF7-67602BFF4146}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28425,7 +31247,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAD87346-868B-47B0-8FFC-D449F6DC16F0}" name="Tabela przestawna3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -28876,27 +31698,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -28961,7 +31783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -29023,7 +31845,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -29085,7 +31907,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -29147,7 +31969,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -29209,7 +32031,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -29271,7 +32093,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -29333,7 +32155,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -29395,7 +32217,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -29457,7 +32279,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -29519,7 +32341,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -29581,7 +32403,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -29643,7 +32465,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -29705,7 +32527,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -29767,7 +32589,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -29829,7 +32651,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -29891,7 +32713,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -29953,7 +32775,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -30018,7 +32840,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -30083,7 +32905,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30124,7 +32946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30165,7 +32987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30206,7 +33028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30268,7 +33090,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30309,7 +33131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30350,7 +33172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30391,7 +33213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30453,7 +33275,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -30518,7 +33340,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -30583,7 +33405,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -30648,7 +33470,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -30713,7 +33535,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -30775,7 +33597,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -30837,7 +33659,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -30899,7 +33721,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -30964,7 +33786,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -31029,7 +33851,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -31094,7 +33916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -31159,7 +33981,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -31224,7 +34046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -31289,7 +34111,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -31354,7 +34176,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -31419,7 +34241,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -31484,7 +34306,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -31546,7 +34368,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -31608,7 +34430,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>53</v>
       </c>
@@ -31670,7 +34492,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>54</v>
       </c>
@@ -31732,7 +34554,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>55</v>
       </c>
@@ -31794,7 +34616,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -31835,7 +34657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>57</v>
       </c>
@@ -31897,7 +34719,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>58</v>
       </c>
@@ -31959,7 +34781,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>59</v>
       </c>
@@ -32021,7 +34843,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>60</v>
       </c>
@@ -32062,7 +34884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>61</v>
       </c>
@@ -32124,7 +34946,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>62</v>
       </c>
@@ -32186,7 +35008,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>63</v>
       </c>
@@ -32248,7 +35070,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>64</v>
       </c>
@@ -32310,7 +35132,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>65</v>
       </c>
@@ -32372,7 +35194,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>66</v>
       </c>
@@ -32434,7 +35256,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>67</v>
       </c>
@@ -32496,7 +35318,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>68</v>
       </c>
@@ -32558,7 +35380,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>69</v>
       </c>
@@ -32620,7 +35442,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>70</v>
       </c>
@@ -32682,7 +35504,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>71</v>
       </c>
@@ -32744,7 +35566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>72</v>
       </c>
@@ -32806,7 +35628,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>73</v>
       </c>
@@ -32868,7 +35690,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>74</v>
       </c>
@@ -32930,7 +35752,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>75</v>
       </c>
@@ -32992,7 +35814,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>76</v>
       </c>
@@ -33054,7 +35876,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>77</v>
       </c>
@@ -33116,7 +35938,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>78</v>
       </c>
@@ -33178,7 +36000,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>79</v>
       </c>
@@ -33240,7 +36062,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>80</v>
       </c>
@@ -33302,7 +36124,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>81</v>
       </c>
@@ -33364,7 +36186,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>82</v>
       </c>
@@ -33426,7 +36248,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>83</v>
       </c>
@@ -33488,7 +36310,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>84</v>
       </c>
@@ -33550,7 +36372,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>85</v>
       </c>
@@ -33612,7 +36434,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>86</v>
       </c>
@@ -33674,7 +36496,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>87</v>
       </c>
@@ -33736,7 +36558,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>88</v>
       </c>
@@ -33798,7 +36620,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>89</v>
       </c>
@@ -33860,7 +36682,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>90</v>
       </c>
@@ -33922,7 +36744,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>91</v>
       </c>
@@ -33984,7 +36806,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>92</v>
       </c>
@@ -34046,7 +36868,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>93</v>
       </c>
@@ -34111,7 +36933,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>94</v>
       </c>
@@ -34176,7 +36998,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
@@ -34217,7 +37039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>96</v>
       </c>
@@ -34258,7 +37080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>97</v>
       </c>
@@ -34299,7 +37121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>98</v>
       </c>
@@ -34361,7 +37183,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>99</v>
       </c>
@@ -34402,7 +37224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100</v>
       </c>
@@ -34443,7 +37265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>101</v>
       </c>
@@ -34484,7 +37306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>102</v>
       </c>
@@ -34546,7 +37368,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>103</v>
       </c>
@@ -34608,7 +37430,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>104</v>
       </c>
@@ -34673,7 +37495,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>105</v>
       </c>
@@ -34735,7 +37557,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>106</v>
       </c>
@@ -34797,7 +37619,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>107</v>
       </c>
@@ -34859,7 +37681,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>108</v>
       </c>
@@ -34924,7 +37746,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>109</v>
       </c>
@@ -34986,7 +37808,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>110</v>
       </c>
@@ -35048,7 +37870,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>111</v>
       </c>
@@ -35113,7 +37935,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>112</v>
       </c>
@@ -35178,7 +38000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>113</v>
       </c>
@@ -35243,7 +38065,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>114</v>
       </c>
@@ -35308,7 +38130,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>115</v>
       </c>
@@ -35373,7 +38195,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>116</v>
       </c>
@@ -35438,7 +38260,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>117</v>
       </c>
@@ -35503,7 +38325,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>118</v>
       </c>
@@ -35568,7 +38390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>119</v>
       </c>
@@ -35630,7 +38452,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>120</v>
       </c>
@@ -35695,7 +38517,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>129</v>
       </c>
@@ -35757,7 +38579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>130</v>
       </c>
@@ -35819,7 +38641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>131</v>
       </c>
@@ -35881,7 +38703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>132</v>
       </c>
@@ -35922,7 +38744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>133</v>
       </c>
@@ -35984,7 +38806,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>134</v>
       </c>
@@ -36046,7 +38868,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>135</v>
       </c>
@@ -36108,7 +38930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>136</v>
       </c>
@@ -36149,7 +38971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>137</v>
       </c>
@@ -36211,7 +39033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>138</v>
       </c>
@@ -36273,7 +39095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>139</v>
       </c>
@@ -36335,7 +39157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>140</v>
       </c>
@@ -36397,7 +39219,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>141</v>
       </c>
@@ -36459,7 +39281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>142</v>
       </c>
@@ -36521,7 +39343,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>143</v>
       </c>
@@ -36583,7 +39405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>144</v>
       </c>
@@ -36645,7 +39467,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>145</v>
       </c>
@@ -36707,7 +39529,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>146</v>
       </c>
@@ -36769,7 +39591,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>147</v>
       </c>
@@ -36831,7 +39653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>148</v>
       </c>
@@ -36893,7 +39715,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>149</v>
       </c>
@@ -36955,7 +39777,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>150</v>
       </c>
@@ -37017,7 +39839,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>151</v>
       </c>
@@ -37079,7 +39901,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>152</v>
       </c>
@@ -37141,7 +39963,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="C138" t="s">
         <v>50</v>
@@ -37201,7 +40023,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="C139" t="s">
         <v>50</v>
@@ -37261,7 +40083,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="C140" t="s">
         <v>50</v>
@@ -37321,7 +40143,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="C141" t="s">
         <v>50</v>
@@ -37381,7 +40203,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="C142" t="s">
         <v>50</v>
@@ -37441,7 +40263,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="C143" t="s">
         <v>50</v>
@@ -37501,7 +40323,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="C144" t="s">
         <v>50</v>
@@ -37561,7 +40383,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="C145" t="s">
         <v>50</v>
@@ -37621,7 +40443,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="C146" t="s">
         <v>49</v>
@@ -37681,7 +40503,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="C147" t="s">
         <v>49</v>
@@ -37741,7 +40563,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="C148" t="s">
         <v>49</v>
@@ -37801,7 +40623,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="C149" t="s">
         <v>49</v>
@@ -37861,7 +40683,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="C150" t="s">
         <v>50</v>
@@ -37921,7 +40743,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="C151" t="s">
         <v>50</v>
@@ -37981,7 +40803,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="C152" t="s">
         <v>50</v>
@@ -38041,7 +40863,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="C153" t="s">
         <v>50</v>
@@ -38101,7 +40923,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="C154" t="s">
         <v>50</v>
@@ -38161,7 +40983,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="C155" t="s">
         <v>50</v>
@@ -38221,7 +41043,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="C156" t="s">
         <v>50</v>
@@ -38281,7 +41103,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="C157" t="s">
         <v>50</v>
@@ -38341,7 +41163,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="C158" t="s">
         <v>51</v>
@@ -38401,7 +41223,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="C159" t="s">
         <v>51</v>
@@ -38461,7 +41283,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="C160" t="s">
         <v>51</v>
@@ -38521,7 +41343,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="C161" t="s">
         <v>51</v>
@@ -38581,7 +41403,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="C162" t="s">
         <v>26</v>
@@ -38641,7 +41463,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="C163" t="s">
         <v>26</v>
@@ -38701,7 +41523,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="C164" t="s">
         <v>26</v>
@@ -38761,7 +41583,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="C165" t="s">
         <v>26</v>
@@ -38836,13 +41658,13 @@
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -38850,7 +41672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -38867,7 +41689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -38884,7 +41706,7 @@
         <v>17.261166666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -38901,7 +41723,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>65</v>
       </c>
@@ -38918,7 +41740,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -38935,7 +41757,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -38952,7 +41774,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
@@ -38969,7 +41791,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -38986,7 +41808,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -39003,7 +41825,7 @@
         <v>11.271666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39020,7 +41842,7 @@
         <v>19.598333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -39037,7 +41859,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39054,7 +41876,7 @@
         <v>31.229333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39071,7 +41893,7 @@
         <v>2.9450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -39088,7 +41910,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39105,7 +41927,7 @@
         <v>3.577</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39136,13 +41958,13 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39150,7 +41972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39167,7 +41989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -39184,7 +42006,7 @@
         <v>17.215416666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -39201,7 +42023,7 @@
         <v>30.821166666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -39218,7 +42040,7 @@
         <v>30.705666666666662</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -39235,7 +42057,7 @@
         <v>30.936666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39252,7 +42074,7 @@
         <v>3.6096666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -39269,7 +42091,7 @@
         <v>3.6336666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
@@ -39286,7 +42108,7 @@
         <v>3.5856666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -39303,7 +42125,7 @@
         <v>5.1000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39320,7 +42142,7 @@
         <v>7.8185000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -39337,7 +42159,7 @@
         <v>7.6696666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>65</v>
       </c>
@@ -39354,7 +42176,7 @@
         <v>7.9673333333333325</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39371,7 +42193,7 @@
         <v>2.3815</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -39388,7 +42210,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -39405,7 +42227,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39436,16 +42258,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39462,7 +42284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -39479,7 +42301,7 @@
         <v>11.305041666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -39496,7 +42318,7 @@
         <v>19.47966666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
@@ -39513,7 +42335,7 @@
         <v>7.8763333333333341</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39530,7 +42352,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -39547,7 +42369,7 @@
         <v>3.1304166666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -39564,7 +42386,7 @@
         <v>2.6794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39581,7 +42403,7 @@
         <v>3.5813333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -39598,7 +42420,7 @@
         <v>10.437124999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -39615,7 +42437,7 @@
         <v>17.441499999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -39632,7 +42454,7 @@
         <v>7.9049999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39649,7 +42471,7 @@
         <v>26.978000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -39666,7 +42488,7 @@
         <v>3.4327500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
@@ -39683,7 +42505,7 @@
         <v>3.8265000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -39700,7 +42522,7 @@
         <v>3.0390000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -39731,17 +42553,17 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -39749,7 +42571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -39766,7 +42588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -39783,7 +42605,7 @@
         <v>38.1845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -39800,7 +42622,7 @@
         <v>4.2294999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -39817,7 +42639,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -39834,7 +42656,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -39851,7 +42673,7 @@
         <v>72.139499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
@@ -39868,7 +42690,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -39885,7 +42707,7 @@
         <v>80.858999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -39902,7 +42724,7 @@
         <v>4.9085000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -39919,7 +42741,7 @@
         <v>4.1710000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -39936,7 +42758,7 @@
         <v>4.1020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -39953,7 +42775,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -39970,7 +42792,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>70</v>
       </c>
@@ -39987,7 +42809,7 @@
         <v>4.1520000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -40004,7 +42826,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -40035,15 +42857,15 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -40051,7 +42873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -40068,7 +42890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -40085,7 +42907,7 @@
         <v>60.886888888888883</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -40102,7 +42924,7 @@
         <v>67.159333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -40119,7 +42941,7 @@
         <v>59.291499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
@@ -40136,7 +42958,7 @@
         <v>82.894999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -40153,7 +42975,7 @@
         <v>57.750666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -40170,7 +42992,7 @@
         <v>52.870000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -40187,7 +43009,7 @@
         <v>62.631333333333338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -40204,7 +43026,7 @@
         <v>4.5101111111111116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -40221,7 +43043,7 @@
         <v>4.4233333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -40238,7 +43060,7 @@
         <v>4.5125000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
@@ -40255,7 +43077,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -40272,7 +43094,7 @@
         <v>4.5534999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -40289,7 +43111,7 @@
         <v>4.3973333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -40306,7 +43128,7 @@
         <v>4.7096666666666662</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -40337,15 +43159,15 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40356,7 +43178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40367,7 +43189,7 @@
         <v>418.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40378,7 +43200,7 @@
         <v>411.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40389,7 +43211,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40400,7 +43222,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40411,7 +43233,7 @@
         <v>402.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40422,7 +43244,7 @@
         <v>551.125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40433,7 +43255,7 @@
         <v>576.70000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40444,7 +43266,7 @@
         <v>555.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40455,7 +43277,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40466,7 +43288,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40477,7 +43299,7 @@
         <v>2760.4749999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40488,7 +43310,7 @@
         <v>2791.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40499,7 +43321,7 @@
         <v>2790.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40510,7 +43332,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40521,7 +43343,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40546,14 +43368,14 @@
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -40561,7 +43383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
@@ -40569,7 +43391,7 @@
         <v>3.3420750000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -40577,7 +43399,7 @@
         <v>3.5762</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
@@ -40585,7 +43407,7 @@
         <v>2.9920999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -40593,7 +43415,7 @@
         <v>3.3857999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
@@ -40601,7 +43423,7 @@
         <v>3.4142000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -40609,7 +43431,7 @@
         <v>5.6034999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -40617,7 +43439,7 @@
         <v>6.1474000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
@@ -40625,7 +43447,7 @@
         <v>5.3183000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -40633,7 +43455,7 @@
         <v>5.6909999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -40641,7 +43463,7 @@
         <v>5.2572999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -40649,7 +43471,7 @@
         <v>101.48837499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
@@ -40657,7 +43479,7 @@
         <v>101.43270000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -40665,7 +43487,7 @@
         <v>101.36969999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -40673,7 +43495,7 @@
         <v>101.76930000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -40681,7 +43503,7 @@
         <v>101.3818</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -40700,19 +43522,19 @@
   <dimension ref="A3:E18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -40729,7 +43551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -40746,7 +43568,7 @@
         <v>20.494166666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -40763,7 +43585,7 @@
         <v>22.132166666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
@@ -40780,7 +43602,7 @@
         <v>13.684333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
@@ -40797,7 +43619,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -40814,7 +43636,7 @@
         <v>18.856166666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -40831,7 +43653,7 @@
         <v>7.0966666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>64</v>
       </c>
@@ -40848,7 +43670,7 @@
         <v>30.615666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -40865,7 +43687,7 @@
         <v>3.312583333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -40882,7 +43704,7 @@
         <v>3.6468333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -40899,7 +43721,7 @@
         <v>3.6113333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -40916,7 +43738,7 @@
         <v>3.6823333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -40933,7 +43755,7 @@
         <v>2.9783333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
@@ -40950,7 +43772,7 @@
         <v>2.3623333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -40967,7 +43789,7 @@
         <v>3.5943333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
@@ -40982,6 +43804,255 @@
       </c>
       <c r="E18">
         <v>11.903374999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403A3FF7-3C86-4D01-B999-B6BEC2943A67}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <v>7.9629444444444442</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9.902000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10.467666666666666</v>
+      </c>
+      <c r="C5" s="11">
+        <v>12.737888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="11">
+        <v>11.561333333333332</v>
+      </c>
+      <c r="C6" s="11">
+        <v>12.453666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10.918000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>13.684333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.9236666666666675</v>
+      </c>
+      <c r="C8" s="11">
+        <v>12.075666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5.458222222222223</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7.0661111111111108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.3246666666666664</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6.7210000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5.469333333333334</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7.0966666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="11">
+        <v>5.5806666666666658</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7.3806666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.3047222222222219</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.7803333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.9061111111111111</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3.3064444444444447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2.6986666666666665</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.859666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2.9813333333333336</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.6113333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3.0383333333333336</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3.4483333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.7033333333333336</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.2542222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1.6760000000000002</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2.1193333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1.7196666666666667</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.3623333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.7143333333333335</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2.2810000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11">
+        <v>5.1338333333333317</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6.3411666666666653</v>
       </c>
     </row>
   </sheetData>
@@ -40998,15 +44069,15 @@
       <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -41071,7 +44142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>35</v>
       </c>
@@ -41136,7 +44207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>36</v>
       </c>
@@ -41201,7 +44272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>37</v>
       </c>
@@ -41266,7 +44337,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>38</v>
       </c>
@@ -41331,7 +44402,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>39</v>
       </c>
@@ -41396,7 +44467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -41461,7 +44532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -41526,7 +44597,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42</v>
       </c>
@@ -41591,7 +44662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>111</v>
       </c>
@@ -41656,7 +44727,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>112</v>
       </c>
@@ -41721,7 +44792,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>113</v>
       </c>
@@ -41786,7 +44857,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>114</v>
       </c>
@@ -41851,7 +44922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>115</v>
       </c>
@@ -41916,7 +44987,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>116</v>
       </c>
@@ -41981,7 +45052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>117</v>
       </c>
@@ -42046,7 +45117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>118</v>
       </c>
@@ -42111,7 +45182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -42173,7 +45244,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>32</v>
       </c>
@@ -42235,7 +45306,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>33</v>
       </c>
@@ -42297,7 +45368,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>43</v>
@@ -42360,7 +45431,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>43</v>
@@ -42423,7 +45494,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -42488,7 +45559,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43</v>
       </c>
@@ -42550,7 +45621,7 @@
         <v>1.5429999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44</v>
       </c>
@@ -42612,7 +45683,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>103</v>
       </c>
@@ -42674,7 +45745,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>43</v>
@@ -42737,7 +45808,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>43</v>
@@ -42800,7 +45871,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>104</v>
       </c>
@@ -42865,7 +45936,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>105</v>
       </c>
@@ -42927,7 +45998,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>106</v>
       </c>
@@ -42989,7 +46060,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>107</v>
       </c>
@@ -43051,7 +46122,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>43</v>
@@ -43114,7 +46185,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>43</v>
@@ -43177,7 +46248,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>108</v>
       </c>
@@ -43242,7 +46313,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>109</v>
       </c>
@@ -43304,7 +46375,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>110</v>
       </c>
@@ -43366,7 +46437,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>119</v>
       </c>
@@ -43428,7 +46499,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>43</v>
@@ -43491,7 +46562,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>43</v>
@@ -43554,7 +46625,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>120</v>
       </c>
@@ -43619,7 +46690,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>50</v>
@@ -43679,7 +46750,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>50</v>
@@ -43739,7 +46810,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>50</v>
@@ -43799,7 +46870,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>50</v>
@@ -43859,7 +46930,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
         <v>50</v>
@@ -43919,7 +46990,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
         <v>50</v>
@@ -43979,7 +47050,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
         <v>50</v>
@@ -44039,7 +47110,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
         <v>50</v>
@@ -44099,7 +47170,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
         <v>50</v>
@@ -44159,7 +47230,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" t="s">
         <v>50</v>
@@ -44219,7 +47290,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" t="s">
         <v>50</v>
@@ -44279,7 +47350,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" t="s">
         <v>50</v>
@@ -44339,7 +47410,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" t="s">
         <v>50</v>
@@ -44399,7 +47470,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -44459,7 +47530,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" t="s">
         <v>50</v>
@@ -44519,7 +47590,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="C57" t="s">
         <v>50</v>
@@ -44579,7 +47650,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -44641,7 +47712,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -44703,7 +47774,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -44765,7 +47836,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -44827,7 +47898,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>5</v>
       </c>
@@ -44889,7 +47960,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -44951,7 +48022,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>7</v>
       </c>
@@ -45013,7 +48084,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>8</v>
       </c>
@@ -45075,7 +48146,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>77</v>
       </c>
@@ -45137,7 +48208,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>78</v>
       </c>
@@ -45199,7 +48270,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>79</v>
       </c>
@@ -45261,7 +48332,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>81</v>
       </c>
@@ -45323,7 +48394,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>82</v>
       </c>
@@ -45385,7 +48456,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>83</v>
       </c>
@@ -45447,7 +48518,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>140</v>
       </c>
@@ -45509,7 +48580,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>144</v>
       </c>
@@ -45589,27 +48660,27 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -45674,7 +48745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>53</v>
       </c>
@@ -45736,7 +48807,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>54</v>
       </c>
@@ -45798,7 +48869,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>55</v>
       </c>
@@ -45860,7 +48931,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>56</v>
       </c>
@@ -45901,7 +48972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>57</v>
       </c>
@@ -45963,7 +49034,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>58</v>
       </c>
@@ -46025,7 +49096,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>59</v>
       </c>
@@ -46087,7 +49158,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>60</v>
       </c>
@@ -46128,7 +49199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>129</v>
       </c>
@@ -46190,7 +49261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>130</v>
       </c>
@@ -46252,7 +49323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>131</v>
       </c>
@@ -46314,7 +49385,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>132</v>
       </c>
@@ -46355,7 +49426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>133</v>
       </c>
@@ -46417,7 +49488,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>134</v>
       </c>
@@ -46479,7 +49550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>135</v>
       </c>
@@ -46541,7 +49612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>136</v>
       </c>
@@ -46582,7 +49653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>61</v>
       </c>
@@ -46644,7 +49715,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -46706,7 +49777,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>63</v>
       </c>
@@ -46768,7 +49839,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>64</v>
       </c>
@@ -46830,7 +49901,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>65</v>
       </c>
@@ -46892,7 +49963,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>66</v>
       </c>
@@ -46954,7 +50025,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>67</v>
       </c>
@@ -47016,7 +50087,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>68</v>
       </c>
@@ -47078,7 +50149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>80</v>
       </c>
@@ -47140,7 +50211,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>84</v>
       </c>
@@ -47202,7 +50273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>137</v>
       </c>
@@ -47264,7 +50335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>138</v>
       </c>
@@ -47326,7 +50397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>139</v>
       </c>
@@ -47388,7 +50459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>141</v>
       </c>
@@ -47450,7 +50521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>142</v>
       </c>
@@ -47512,7 +50583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>143</v>
       </c>
@@ -47574,7 +50645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -47636,7 +50707,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -47698,7 +50769,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>3</v>
       </c>
@@ -47760,7 +50831,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -47822,7 +50893,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -47884,7 +50955,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -47946,7 +51017,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -48008,7 +51079,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -48070,7 +51141,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>77</v>
       </c>
@@ -48132,7 +51203,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>78</v>
       </c>
@@ -48194,7 +51265,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>79</v>
       </c>
@@ -48256,7 +51327,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>81</v>
       </c>
@@ -48318,7 +51389,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>82</v>
       </c>
@@ -48380,7 +51451,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>83</v>
       </c>
@@ -48442,7 +51513,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>140</v>
       </c>
@@ -48504,7 +51575,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>144</v>
       </c>
@@ -48584,27 +51655,27 @@
       <selection activeCell="A2" sqref="A1:U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -48669,7 +51740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -48731,7 +51802,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -48793,7 +51864,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -48855,7 +51926,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -48917,7 +51988,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -48979,7 +52050,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -49041,7 +52112,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -49103,7 +52174,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -49165,7 +52236,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>77</v>
       </c>
@@ -49227,7 +52298,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>78</v>
       </c>
@@ -49289,7 +52360,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>79</v>
       </c>
@@ -49351,7 +52422,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>81</v>
       </c>
@@ -49413,7 +52484,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>82</v>
       </c>
@@ -49475,7 +52546,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>83</v>
       </c>
@@ -49537,7 +52608,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
@@ -49599,7 +52670,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>144</v>
       </c>
@@ -49661,7 +52732,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>69</v>
       </c>
@@ -49723,7 +52794,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>70</v>
       </c>
@@ -49785,7 +52856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>71</v>
       </c>
@@ -49847,7 +52918,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>72</v>
       </c>
@@ -49909,7 +52980,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>73</v>
       </c>
@@ -49971,7 +53042,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>74</v>
       </c>
@@ -50033,7 +53104,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>75</v>
       </c>
@@ -50095,7 +53166,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>76</v>
       </c>
@@ -50157,7 +53228,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>145</v>
       </c>
@@ -50219,7 +53290,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>146</v>
       </c>
@@ -50281,7 +53352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>147</v>
       </c>
@@ -50343,7 +53414,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>148</v>
       </c>
@@ -50405,7 +53476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>149</v>
       </c>
@@ -50467,7 +53538,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>150</v>
       </c>
@@ -50529,7 +53600,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>151</v>
       </c>
@@ -50591,7 +53662,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>152</v>
       </c>
@@ -50663,23 +53734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21586A7D-B8C0-CA44-91B0-75208C196576}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView zoomScale="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
@@ -50744,7 +53813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
@@ -50805,7 +53874,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -50866,7 +53935,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -50927,7 +53996,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -50988,7 +54057,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -51049,7 +54118,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -51110,7 +54179,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -51171,7 +54240,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -51232,7 +54301,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
@@ -51295,7 +54364,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -51356,7 +54425,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -51417,7 +54486,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -51478,7 +54547,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
@@ -51539,7 +54608,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
@@ -51600,7 +54669,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -51661,7 +54730,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -51722,7 +54791,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
@@ -51783,7 +54852,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -51844,7 +54913,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -51905,7 +54974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -51966,7 +55035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -52027,7 +55096,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -52088,7 +55157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -52149,7 +55218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -52210,7 +55279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
@@ -52269,7 +55338,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
@@ -52328,7 +55397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
@@ -52387,7 +55456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
@@ -52446,7 +55515,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
@@ -52505,7 +55574,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
@@ -52564,7 +55633,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
         <v>85</v>
       </c>
@@ -52623,7 +55692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
         <v>85</v>
       </c>
@@ -52682,7 +55751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
         <v>85</v>
       </c>
@@ -52741,7 +55810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="9" t="s">
         <v>85</v>
       </c>
@@ -52800,7 +55869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="9" t="s">
         <v>85</v>
       </c>
@@ -52859,7 +55928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>85</v>
       </c>
@@ -52918,7 +55987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
         <v>85</v>
       </c>
@@ -52977,7 +56046,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>85</v>
       </c>
@@ -53036,7 +56105,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>85</v>
       </c>
@@ -53095,7 +56164,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>85</v>
       </c>
@@ -53154,7 +56223,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
         <v>85</v>
       </c>
@@ -53213,7 +56282,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="9" t="s">
         <v>85</v>
       </c>
@@ -53272,7 +56341,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
         <v>85</v>
       </c>
@@ -53331,7 +56400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
         <v>85</v>
       </c>
@@ -53390,7 +56459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>85</v>
       </c>
@@ -53449,7 +56518,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>85</v>
       </c>
@@ -53508,7 +56577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>85</v>
       </c>
@@ -53567,7 +56636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>85</v>
       </c>
@@ -53640,27 +56709,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -53725,7 +56794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -53790,7 +56859,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>29</v>
       </c>
@@ -53855,7 +56924,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>26</v>
@@ -53915,7 +56984,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -53980,7 +57049,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>18</v>
       </c>
@@ -54045,7 +57114,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>26</v>
@@ -54105,7 +57174,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>49</v>
@@ -54165,7 +57234,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>49</v>
@@ -54225,7 +57294,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>51</v>
@@ -54285,7 +57354,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>51</v>
@@ -54345,7 +57414,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>49</v>
@@ -54405,7 +57474,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>49</v>
@@ -54465,7 +57534,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>27</v>
       </c>
@@ -54530,7 +57599,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>28</v>
       </c>
@@ -54595,7 +57664,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -54654,7 +57723,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -54713,7 +57782,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -54772,7 +57841,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -54831,7 +57900,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -54890,7 +57959,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -54949,7 +58018,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
@@ -55008,7 +58077,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -55067,7 +58136,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>51</v>
       </c>
@@ -55126,7 +58195,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
@@ -55185,7 +58254,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -55244,7 +58313,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>51</v>
       </c>
@@ -55317,28 +58386,28 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -55400,7 +58469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>73</v>
       </c>
@@ -55459,7 +58528,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>73</v>
       </c>
@@ -55518,7 +58587,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>73</v>
       </c>
@@ -55577,7 +58646,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -55636,7 +58705,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>73</v>
       </c>
@@ -55695,7 +58764,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>73</v>
       </c>
@@ -55754,7 +58823,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>73</v>
       </c>
@@ -55813,7 +58882,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -55872,7 +58941,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>73</v>
       </c>
@@ -55931,7 +59000,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>73</v>
       </c>
@@ -55990,7 +59059,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>73</v>
       </c>
@@ -56049,7 +59118,7 @@
         <v>101346</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -56108,7 +59177,7 @@
         <v>102114</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>73</v>
       </c>
@@ -56167,7 +59236,7 @@
         <v>101341</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>73</v>
       </c>
@@ -56226,7 +59295,7 @@
         <v>101365</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -56285,7 +59354,7 @@
         <v>101256</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>73</v>
       </c>
@@ -56344,7 +59413,7 @@
         <v>101287</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -56403,7 +59472,7 @@
         <v>101389</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>73</v>
       </c>
@@ -56462,7 +59531,7 @@
         <v>101427</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>73</v>
       </c>
@@ -56521,7 +59590,7 @@
         <v>101466</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>73</v>
       </c>
@@ -56580,7 +59649,7 @@
         <v>101336</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -56639,7 +59708,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -56698,7 +59767,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>76</v>
       </c>
@@ -56757,7 +59826,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>76</v>
       </c>
@@ -56816,7 +59885,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>76</v>
       </c>
@@ -56875,7 +59944,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -56934,7 +60003,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -56993,7 +60062,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>76</v>
       </c>
@@ -57052,7 +60121,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>76</v>
       </c>
@@ -57111,7 +60180,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -57170,7 +60239,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>76</v>
       </c>
@@ -57229,7 +60298,7 @@
         <v>101275</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>76</v>
       </c>
@@ -57288,7 +60357,7 @@
         <v>101518</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>76</v>
       </c>
@@ -57347,7 +60416,7 @@
         <v>101433</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>76</v>
       </c>
@@ -57406,7 +60475,7 @@
         <v>101555</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>76</v>
       </c>
@@ -57465,7 +60534,7 @@
         <v>101392</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>76</v>
       </c>
@@ -57524,7 +60593,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>76</v>
       </c>
@@ -57583,7 +60652,7 @@
         <v>101240</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>76</v>
       </c>
@@ -57642,7 +60711,7 @@
         <v>101314</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>76</v>
       </c>
@@ -57701,7 +60770,7 @@
         <v>101587</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -57760,7 +60829,7 @@
         <v>101254</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -57819,7 +60888,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>75</v>
       </c>
@@ -57878,7 +60947,7 @@
         <v>5752</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>75</v>
       </c>
@@ -57937,7 +61006,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>75</v>
       </c>
@@ -57996,7 +61065,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>75</v>
       </c>
@@ -58055,7 +61124,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>75</v>
       </c>
@@ -58114,7 +61183,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -58173,7 +61242,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>75</v>
       </c>
@@ -58232,7 +61301,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>75</v>
       </c>
@@ -58291,7 +61360,7 @@
         <v>6608</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>75</v>
       </c>
@@ -58350,7 +61419,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>75</v>
       </c>
@@ -58409,7 +61478,7 @@
         <v>101338</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>75</v>
       </c>
@@ -58468,7 +61537,7 @@
         <v>101332</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -58527,7 +61596,7 @@
         <v>102094</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>75</v>
       </c>
@@ -58586,7 +61655,7 @@
         <v>102489</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>75</v>
       </c>
@@ -58645,7 +61714,7 @@
         <v>102317</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>75</v>
       </c>
@@ -58704,7 +61773,7 @@
         <v>100644</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>75</v>
       </c>
@@ -58763,7 +61832,7 @@
         <v>101624</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>75</v>
       </c>
@@ -58822,7 +61891,7 @@
         <v>102407</v>
       </c>
     </row>
-    <row r="60" spans="3:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -58881,7 +61950,7 @@
         <v>100757</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>75</v>
       </c>
@@ -58940,7 +62009,7 @@
         <v>102691</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>74</v>
       </c>
@@ -58999,7 +62068,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -59058,7 +62127,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>74</v>
       </c>
@@ -59117,7 +62186,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>74</v>
       </c>
@@ -59176,7 +62245,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>74</v>
       </c>
@@ -59235,7 +62304,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>74</v>
       </c>
@@ -59294,7 +62363,7 @@
         <v>5133</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>74</v>
       </c>
@@ -59353,7 +62422,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>74</v>
       </c>
@@ -59412,7 +62481,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -59471,7 +62540,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>74</v>
       </c>
@@ -59530,7 +62599,7 @@
         <v>5205</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>74</v>
       </c>
@@ -59589,7 +62658,7 @@
         <v>101467</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>74</v>
       </c>
@@ -59648,7 +62717,7 @@
         <v>101852</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>74</v>
       </c>
@@ -59707,7 +62776,7 @@
         <v>101508</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -59766,7 +62835,7 @@
         <v>101502</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>74</v>
       </c>
@@ -59825,7 +62894,7 @@
         <v>101283</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>74</v>
       </c>
@@ -59884,7 +62953,7 @@
         <v>101408</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>74</v>
       </c>
@@ -59943,7 +63012,7 @@
         <v>101174</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>74</v>
       </c>
@@ -60002,7 +63071,7 @@
         <v>101166</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>74</v>
       </c>
@@ -60061,7 +63130,7 @@
         <v>101165</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>74</v>
       </c>
@@ -60120,7 +63189,7 @@
         <v>101172</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>73</v>
       </c>
@@ -60179,7 +63248,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>73</v>
       </c>
@@ -60238,7 +63307,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>73</v>
       </c>
@@ -60297,7 +63366,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>73</v>
       </c>
@@ -60356,7 +63425,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>73</v>
       </c>
@@ -60415,7 +63484,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>76</v>
       </c>
@@ -60474,7 +63543,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>76</v>
       </c>
@@ -60533,7 +63602,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>76</v>
       </c>
@@ -60592,7 +63661,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>76</v>
       </c>
@@ -60651,7 +63720,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>76</v>
       </c>
@@ -60710,7 +63779,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>75</v>
       </c>
@@ -60769,7 +63838,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>75</v>
       </c>
@@ -60828,7 +63897,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>75</v>
       </c>
@@ -60887,7 +63956,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>75</v>
       </c>
@@ -60946,7 +64015,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>75</v>
       </c>
@@ -61005,7 +64074,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>74</v>
       </c>
@@ -61064,7 +64133,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>74</v>
       </c>
@@ -61123,7 +64192,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>74</v>
       </c>
@@ -61182,7 +64251,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>74</v>
       </c>
@@ -61241,7 +64310,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>74</v>
       </c>
@@ -61300,7 +64369,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>73</v>
       </c>
@@ -61359,7 +64428,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>73</v>
       </c>
@@ -61418,7 +64487,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>73</v>
       </c>
@@ -61477,7 +64546,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>73</v>
       </c>
@@ -61536,7 +64605,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>73</v>
       </c>
@@ -61595,7 +64664,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>76</v>
       </c>
@@ -61654,7 +64723,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>76</v>
       </c>
@@ -61713,7 +64782,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>76</v>
       </c>
@@ -61772,7 +64841,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>76</v>
       </c>
@@ -61831,7 +64900,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>76</v>
       </c>
@@ -61890,7 +64959,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>75</v>
       </c>
@@ -61949,7 +65018,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>75</v>
       </c>
@@ -62008,7 +65077,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>75</v>
       </c>
@@ -62067,7 +65136,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>75</v>
       </c>
@@ -62126,7 +65195,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>75</v>
       </c>
@@ -62185,7 +65254,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>74</v>
       </c>
@@ -62244,7 +65313,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>74</v>
       </c>
@@ -62303,7 +65372,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>74</v>
       </c>
@@ -62362,7 +65431,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>74</v>
       </c>
@@ -62421,7 +65490,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>74</v>
       </c>
@@ -62495,13 +65564,13 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -62509,7 +65578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -62526,7 +65595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -62543,7 +65612,7 @@
         <v>16.831916666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -62560,7 +65629,7 @@
         <v>2.5808333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -62577,7 +65646,7 @@
         <v>31.082999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -62594,7 +65663,7 @@
         <v>2.4213333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -62611,7 +65680,7 @@
         <v>1.2613333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -62628,7 +65697,7 @@
         <v>3.5813333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -62659,13 +65728,13 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
@@ -62682,7 +65751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -62699,7 +65768,7 @@
         <v>16.845124999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -62716,7 +65785,7 @@
         <v>30.280666666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -62733,7 +65802,7 @@
         <v>29.304833333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -62750,7 +65819,7 @@
         <v>31.256499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -62767,7 +65836,7 @@
         <v>3.4095833333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -62784,7 +65853,7 @@
         <v>3.1893333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -62801,7 +65870,7 @@
         <v>3.6298333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
@@ -62818,7 +65887,7 @@
         <v>19.030999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -62835,7 +65904,7 @@
         <v>34.987749999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -62852,7 +65921,7 @@
         <v>37.586833333333324</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
@@ -62869,7 +65938,7 @@
         <v>27.1905</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -62886,7 +65955,7 @@
         <v>3.0742499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -62903,7 +65972,7 @@
         <v>2.7271666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
@@ -62920,7 +65989,7 @@
         <v>4.1154999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
